--- a/output/Dimension_overview_OCHA_Somalia___SOM.xlsx
+++ b/output/Dimension_overview_OCHA_Somalia___SOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_08180D4C97CA9FA2CA8390E9EFA566A3E26B1BBD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53DF8F7B-C639-4979-862E-45688929A403}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_34E86E4F249A5CA2C0F015E953E1206C03C47DFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73F2414F-AB3E-4A52-81F5-1960E7A3FD82}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By dimension TOTAL" sheetId="1" r:id="rId1"/>
@@ -1031,73 +1031,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,60 +1062,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,33 +1402,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="5" max="19" width="19.36328125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="7.58984375" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="6.2265625" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" customWidth="1"/>
+    <col min="16" max="16" width="19.1796875" customWidth="1"/>
+    <col min="17" max="17" width="5.953125" customWidth="1"/>
+    <col min="18" max="19" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="E1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
+      <c r="E1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A5" s="1"/>
@@ -1509,91 +1456,91 @@
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>4108701</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>1707315</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>85360</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>190740</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>583946</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>1541339</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="5">
         <v>2567362</v>
       </c>
     </row>
@@ -1602,49 +1549,49 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>3203012</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>1290911</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6">
         <v>60213</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="6">
         <v>163854</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="6">
         <v>483771</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="6">
         <v>1204263</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="8">
         <v>1998749</v>
       </c>
     </row>
@@ -1653,49 +1600,49 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>153574</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>81523</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <v>2754</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="6">
         <v>2360</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="6">
         <v>22362</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="6">
         <v>44575</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="8">
         <v>108999</v>
       </c>
     </row>
@@ -1704,49 +1651,49 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>752114</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>334881</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <v>22393</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="6">
         <v>24526</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="6">
         <v>77813</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="6">
         <v>292501</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="8">
         <v>459613</v>
       </c>
     </row>
@@ -1755,49 +1702,49 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <v>1892921</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>778663</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="9">
         <v>38058</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="9">
         <v>87957</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="9">
         <v>290377</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="9">
         <v>697865</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="11">
         <v>1195056</v>
       </c>
     </row>
@@ -1806,49 +1753,49 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>2215780</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>928652</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="9">
         <v>47301</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="9">
         <v>102783</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="9">
         <v>293570</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="9">
         <v>843474</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="11">
         <v>1372306</v>
       </c>
     </row>
@@ -1857,49 +1804,49 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="12">
         <v>762535</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="12">
         <v>315814</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="12">
         <v>19294</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="12">
         <v>28829</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="12">
         <v>76183</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="12">
         <v>322415</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="14">
         <v>440120</v>
       </c>
     </row>
@@ -1908,49 +1855,49 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="15">
         <v>1369567</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="15">
         <v>569105</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="15">
         <v>28453</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="15">
         <v>63580</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="15">
         <v>194649</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="15">
         <v>513780</v>
       </c>
-      <c r="R13" s="22" t="s">
+      <c r="R13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="17">
         <v>855787</v>
       </c>
     </row>
@@ -1959,49 +1906,49 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="15">
         <v>1711959</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="15">
         <v>711381</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="15">
         <v>35566</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="15">
         <v>79475</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="15">
         <v>243311</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="15">
         <v>642225</v>
       </c>
-      <c r="R14" s="22" t="s">
+      <c r="R14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="17">
         <v>1069734</v>
       </c>
     </row>
@@ -2010,49 +1957,49 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="15">
         <v>1027175</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="15">
         <v>426829</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="15">
         <v>21340</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="15">
         <v>47685</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="15">
         <v>145987</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="15">
         <v>385335</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="17">
         <v>641840</v>
       </c>
     </row>
@@ -2061,49 +2008,49 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="18">
         <v>410870</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="18">
         <v>170732</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="18">
         <v>8536</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="18">
         <v>19074</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="18">
         <v>58395</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16" s="18">
         <v>154134</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="20">
         <v>256736</v>
       </c>
     </row>
@@ -2119,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -2136,76 +2083,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2214,52 +2161,52 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="30">
         <v>19</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="30">
         <v>243100</v>
       </c>
-      <c r="I6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="38">
-        <v>0</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="39">
-        <v>0</v>
-      </c>
-      <c r="M6" s="40" t="s">
+      <c r="I6" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="33">
         <v>61245</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="34">
         <v>96927</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="35">
         <v>84929</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="8">
         <v>158171</v>
       </c>
     </row>
@@ -2268,52 +2215,52 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="30">
         <v>22</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="30">
         <v>115725</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="31">
         <v>69259</v>
       </c>
-      <c r="K7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="39">
-        <v>0</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="40">
-        <v>0</v>
-      </c>
-      <c r="O7" s="41" t="s">
+      <c r="K7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="34">
         <v>6508</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="35">
         <v>39958</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="8">
         <v>75767</v>
       </c>
     </row>
@@ -2322,52 +2269,52 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="30">
         <v>8</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="30">
         <v>93763</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="31">
         <v>43883</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="32">
         <v>873</v>
       </c>
-      <c r="M8" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="40">
-        <v>0</v>
-      </c>
-      <c r="O8" s="41" t="s">
+      <c r="M8" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="34">
         <v>10137</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="35">
         <v>38870</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="8">
         <v>54893</v>
       </c>
     </row>
@@ -2376,52 +2323,52 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="30">
         <v>5</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="30">
         <v>173573</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="31">
         <v>107274</v>
       </c>
-      <c r="K9" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="39">
-        <v>0</v>
-      </c>
-      <c r="M9" s="40" t="s">
+      <c r="K9" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="32">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="33">
         <v>16465</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="O9" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="34">
         <v>16465</v>
       </c>
-      <c r="Q9" s="42" t="s">
+      <c r="Q9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="35">
         <v>33369</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="8">
         <v>140204</v>
       </c>
     </row>
@@ -2430,52 +2377,52 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="30">
         <v>9</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="30">
         <v>240015</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="31">
         <v>49834</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="32">
         <v>2361</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="33">
         <v>17310</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="O10" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="34">
         <v>14896</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="35">
         <v>155613</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="8">
         <v>84402</v>
       </c>
     </row>
@@ -2484,52 +2431,52 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="30">
         <v>24</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="30">
         <v>81852</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="31">
         <v>24799</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="32">
         <v>2849</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="40">
+      <c r="N11" s="33">
         <v>4006</v>
       </c>
-      <c r="O11" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="42" t="s">
+      <c r="O11" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="35">
         <v>50198</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="8">
         <v>31654</v>
       </c>
     </row>
@@ -2538,52 +2485,52 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="30">
         <v>13</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="30">
         <v>94050</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="31">
         <v>85878</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="32">
         <v>4289</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="33">
         <v>1294</v>
       </c>
-      <c r="O12" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="42" t="s">
+      <c r="O12" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="35">
         <v>2588</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="8">
         <v>91461</v>
       </c>
     </row>
@@ -2592,52 +2539,52 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="30">
         <v>6</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="30">
         <v>71100</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="31">
         <v>40347</v>
       </c>
-      <c r="K13" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="39">
-        <v>0</v>
-      </c>
-      <c r="M13" s="40" t="s">
+      <c r="K13" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="32">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="33">
         <v>3193</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="34">
         <v>5992</v>
       </c>
-      <c r="Q13" s="42" t="s">
+      <c r="Q13" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="35">
         <v>21568</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="8">
         <v>49532</v>
       </c>
     </row>
@@ -2646,52 +2593,52 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="30">
         <v>1</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="30">
         <v>206737</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="31">
         <v>81356</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="32">
         <v>20326</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="M14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="33">
         <v>10646</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="34">
         <v>7570</v>
       </c>
-      <c r="Q14" s="42" t="s">
+      <c r="Q14" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="35">
         <v>86838</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="8">
         <v>119899</v>
       </c>
     </row>
@@ -2700,52 +2647,52 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="30">
         <v>4</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="30">
         <v>79357</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="31">
         <v>34449</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="32">
         <v>221</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="N15" s="40">
+      <c r="N15" s="33">
         <v>523</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="34">
         <v>2231</v>
       </c>
-      <c r="Q15" s="42" t="s">
+      <c r="Q15" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="35">
         <v>41933</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="8">
         <v>37424</v>
       </c>
     </row>
@@ -2754,52 +2701,52 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="30">
         <v>2</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="30">
         <v>94127</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="31">
         <v>20287</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="32">
         <v>422</v>
       </c>
-      <c r="M16" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="40">
-        <v>0</v>
-      </c>
-      <c r="O16" s="41" t="s">
+      <c r="M16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="O16" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="34">
         <v>560</v>
       </c>
-      <c r="Q16" s="42" t="s">
+      <c r="Q16" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="35">
         <v>72859</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="8">
         <v>21268</v>
       </c>
     </row>
@@ -2808,52 +2755,52 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="30">
         <v>16</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="30">
         <v>82380</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="31">
         <v>69919</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="32">
         <v>2462</v>
       </c>
-      <c r="M17" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="40">
-        <v>0</v>
-      </c>
-      <c r="O17" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="42" t="s">
+      <c r="M17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="35">
         <v>9999</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="8">
         <v>72381</v>
       </c>
     </row>
@@ -2862,52 +2809,52 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="30">
         <v>23</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="30">
         <v>75316</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="31">
         <v>22738</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="32">
         <v>3200</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="40">
+      <c r="N18" s="33">
         <v>1322</v>
       </c>
-      <c r="O18" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="42" t="s">
+      <c r="O18" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="35">
         <v>48055</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="8">
         <v>27260</v>
       </c>
     </row>
@@ -2916,52 +2863,52 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="30">
         <v>10</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="30">
         <v>49284</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="31">
         <v>19699</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="32">
         <v>2896</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="N19" s="40">
+      <c r="N19" s="33">
         <v>6912</v>
       </c>
-      <c r="O19" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="42" t="s">
+      <c r="O19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="35">
         <v>19777</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="8">
         <v>29507</v>
       </c>
     </row>
@@ -2970,52 +2917,52 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="30">
         <v>11</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="30">
         <v>469612</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="31">
         <v>259987</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="32">
         <v>5724</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="40">
+      <c r="N20" s="33">
         <v>17720</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="O20" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="34">
         <v>3775</v>
       </c>
-      <c r="Q20" s="42" t="s">
+      <c r="Q20" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="35">
         <v>182406</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="8">
         <v>287207</v>
       </c>
     </row>
@@ -3024,52 +2971,52 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="30">
         <v>15</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="30">
         <v>77970</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="31">
         <v>40838</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="32">
         <v>5920</v>
       </c>
-      <c r="M21" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N21" s="40">
-        <v>0</v>
-      </c>
-      <c r="O21" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="42" t="s">
+      <c r="M21" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="35">
         <v>31212</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="8">
         <v>46757</v>
       </c>
     </row>
@@ -3078,52 +3025,52 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="30">
         <v>3</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="30">
         <v>85275</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="31">
         <v>40510</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="32">
         <v>1773</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="N22" s="40">
+      <c r="N22" s="33">
         <v>12679</v>
       </c>
-      <c r="O22" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="42" t="s">
+      <c r="O22" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="35">
         <v>30313</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="S22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="8">
         <v>54962</v>
       </c>
     </row>
@@ -3132,52 +3079,52 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="30">
         <v>14</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="30">
         <v>81840</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="31">
         <v>30909</v>
       </c>
-      <c r="K23" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="39">
-        <v>0</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="40">
-        <v>0</v>
-      </c>
-      <c r="O23" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P23" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="42" t="s">
+      <c r="K23" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="35">
         <v>50931</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="8">
         <v>30909</v>
       </c>
     </row>
@@ -3186,52 +3133,52 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="30">
         <v>21</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="30">
         <v>116609</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="31">
         <v>34919</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="32">
         <v>6897</v>
       </c>
-      <c r="M24" s="40" t="s">
+      <c r="M24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="40">
+      <c r="N24" s="33">
         <v>5311</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="34">
         <v>329</v>
       </c>
-      <c r="Q24" s="42" t="s">
+      <c r="Q24" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="R24" s="42">
+      <c r="R24" s="35">
         <v>69153</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="S24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="8">
         <v>47456</v>
       </c>
     </row>
@@ -3240,52 +3187,52 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="30">
         <v>7</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="30">
         <v>103387</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="31">
         <v>66887</v>
       </c>
-      <c r="K25" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="39">
-        <v>0</v>
-      </c>
-      <c r="M25" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N25" s="40">
-        <v>0</v>
-      </c>
-      <c r="O25" s="41" t="s">
+      <c r="K25" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="41">
+      <c r="P25" s="34">
         <v>29549</v>
       </c>
-      <c r="Q25" s="42" t="s">
+      <c r="Q25" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="35">
         <v>6951</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="8">
         <v>96437</v>
       </c>
     </row>
@@ -3294,52 +3241,52 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="30">
         <v>18</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="30">
         <v>70760</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="31">
         <v>52514</v>
       </c>
-      <c r="K26" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="39">
-        <v>0</v>
-      </c>
-      <c r="M26" s="40" t="s">
+      <c r="K26" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="32">
+        <v>0</v>
+      </c>
+      <c r="M26" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="33">
         <v>703</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="O26" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="34">
         <v>970</v>
       </c>
-      <c r="Q26" s="42" t="s">
+      <c r="Q26" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="35">
         <v>16573</v>
       </c>
-      <c r="S26" s="10" t="s">
+      <c r="S26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="8">
         <v>54187</v>
       </c>
     </row>
@@ -3348,52 +3295,52 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="30">
         <v>12</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="30">
         <v>114132</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="31">
         <v>54533</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="39">
-        <v>0</v>
-      </c>
-      <c r="M27" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N27" s="40">
-        <v>0</v>
-      </c>
-      <c r="O27" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P27" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="42" t="s">
+      <c r="K27" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="32">
+        <v>0</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="R27" s="42">
+      <c r="R27" s="35">
         <v>59599</v>
       </c>
-      <c r="S27" s="10" t="s">
+      <c r="S27" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="8">
         <v>54533</v>
       </c>
     </row>
@@ -3402,52 +3349,52 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="30">
         <v>17</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="30">
         <v>284225</v>
       </c>
-      <c r="I28" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="38">
-        <v>0</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="39">
-        <v>0</v>
-      </c>
-      <c r="M28" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N28" s="40">
-        <v>0</v>
-      </c>
-      <c r="O28" s="41" t="s">
+      <c r="I28" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="31">
+        <v>0</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="32">
+        <v>0</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="O28" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="34">
         <v>284225</v>
       </c>
-      <c r="Q28" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="R28" s="42">
-        <v>0</v>
-      </c>
-      <c r="S28" s="10" t="s">
+      <c r="Q28" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="R28" s="35">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="8">
         <v>284225</v>
       </c>
     </row>
@@ -3456,52 +3403,52 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="37">
         <v>20</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="37">
         <v>98820</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="38">
         <v>40091</v>
       </c>
-      <c r="K29" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="46">
-        <v>0</v>
-      </c>
-      <c r="M29" s="47" t="s">
+      <c r="K29" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="39">
+        <v>0</v>
+      </c>
+      <c r="M29" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N29" s="40">
         <v>4524</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="P29" s="48">
+      <c r="P29" s="41">
         <v>3635</v>
       </c>
-      <c r="Q29" s="49" t="s">
+      <c r="Q29" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="R29" s="49">
+      <c r="R29" s="42">
         <v>50570</v>
       </c>
-      <c r="S29" s="50" t="s">
+      <c r="S29" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="8">
         <v>48250</v>
       </c>
     </row>
@@ -3534,76 +3481,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3612,52 +3559,52 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="30">
         <v>19</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="30">
         <v>34729</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="31">
         <v>23001</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="39">
-        <v>0</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="40">
-        <v>0</v>
-      </c>
-      <c r="O6" s="41" t="s">
+      <c r="K6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="34">
         <v>6534</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="35">
         <v>5194</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="8">
         <v>29534</v>
       </c>
     </row>
@@ -3666,52 +3613,52 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="30">
         <v>22</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="30">
         <v>16532</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="31">
         <v>8790</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="32">
         <v>810</v>
       </c>
-      <c r="M7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="40">
-        <v>0</v>
-      </c>
-      <c r="O7" s="41" t="s">
+      <c r="M7" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="34">
         <v>600</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="35">
         <v>6331</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="8">
         <v>10201</v>
       </c>
     </row>
@@ -3720,52 +3667,52 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="30">
         <v>8</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="30">
         <v>13395</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="31">
         <v>9849</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="32">
         <v>85</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="33">
         <v>61</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="34">
         <v>1353</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="35">
         <v>2046</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="8">
         <v>11349</v>
       </c>
     </row>
@@ -3774,52 +3721,52 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="30">
         <v>5</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="30">
         <v>24796</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="31">
         <v>17233</v>
       </c>
-      <c r="K9" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="39">
-        <v>0</v>
-      </c>
-      <c r="M9" s="40" t="s">
+      <c r="K9" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="32">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="33">
         <v>1688</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="O9" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="34">
         <v>5876</v>
       </c>
-      <c r="Q9" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="42">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10" t="s">
+      <c r="Q9" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="35">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="8">
         <v>24796</v>
       </c>
     </row>
@@ -3828,52 +3775,52 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="30">
         <v>4</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="30">
         <v>11337</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="31">
         <v>6312</v>
       </c>
-      <c r="K10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="39">
-        <v>0</v>
-      </c>
-      <c r="M10" s="40" t="s">
+      <c r="K10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0</v>
+      </c>
+      <c r="M10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="33">
         <v>228</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="O10" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="34">
         <v>442</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="35">
         <v>4354</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="8">
         <v>6982</v>
       </c>
     </row>
@@ -3882,52 +3829,52 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="30">
         <v>3</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="30">
         <v>12182</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="31">
         <v>9104</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="32">
         <v>895</v>
       </c>
-      <c r="M11" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="40">
-        <v>0</v>
-      </c>
-      <c r="O11" s="41" t="s">
+      <c r="M11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="34">
         <v>285</v>
       </c>
-      <c r="Q11" s="42" t="s">
+      <c r="Q11" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="35">
         <v>1898</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="8">
         <v>10284</v>
       </c>
     </row>
@@ -3936,52 +3883,52 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="37">
         <v>17</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="37">
         <v>40604</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="38">
         <v>7234</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="39">
         <v>964</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="40">
         <v>383</v>
       </c>
-      <c r="O12" s="48" t="s">
+      <c r="O12" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="41">
         <v>7272</v>
       </c>
-      <c r="Q12" s="49" t="s">
+      <c r="Q12" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="R12" s="49">
+      <c r="R12" s="42">
         <v>24751</v>
       </c>
-      <c r="S12" s="50" t="s">
+      <c r="S12" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="8">
         <v>15852</v>
       </c>
     </row>
@@ -4014,76 +3961,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.5" x14ac:dyDescent="0.75">
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4092,52 +4039,52 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="30">
         <v>19</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="30">
         <v>69457</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="31">
         <v>57259</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="39">
-        <v>0</v>
-      </c>
-      <c r="M6" s="40" t="s">
+      <c r="K6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="33">
         <v>3970</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="34">
         <v>4717</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="35">
         <v>3511</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="8">
         <v>65946</v>
       </c>
     </row>
@@ -4146,52 +4093,52 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="30">
         <v>22</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="30">
         <v>33064</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="31">
         <v>26027</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="32">
         <v>607</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="33">
         <v>151</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="34">
         <v>280</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="35">
         <v>5999</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="8">
         <v>27065</v>
       </c>
     </row>
@@ -4200,52 +4147,52 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="30">
         <v>8</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="30">
         <v>26789</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="31">
         <v>19812</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="32">
         <v>477</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="33">
         <v>279</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="34">
         <v>1802</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="35">
         <v>4419</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="8">
         <v>22371</v>
       </c>
     </row>
@@ -4254,52 +4201,52 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="30">
         <v>5</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="30">
         <v>49592</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="31">
         <v>14262</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="32">
         <v>275</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="33">
         <v>3562</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="O9" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="34">
         <v>5804</v>
       </c>
-      <c r="Q9" s="42" t="s">
+      <c r="Q9" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="35">
         <v>25689</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="8">
         <v>23903</v>
       </c>
     </row>
@@ -4308,52 +4255,52 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="30">
         <v>9</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="30">
         <v>68576</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="31">
         <v>33251</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="32">
         <v>897</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="33">
         <v>3069</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="O10" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="34">
         <v>9014</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="35">
         <v>22345</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="8">
         <v>46231</v>
       </c>
     </row>
@@ -4362,52 +4309,52 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="30">
         <v>13</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="30">
         <v>26871</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="31">
         <v>26871</v>
       </c>
-      <c r="K11" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="39">
-        <v>0</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="40">
-        <v>0</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="42">
-        <v>0</v>
-      </c>
-      <c r="S11" s="10" t="s">
+      <c r="K11" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="32">
+        <v>0</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="35">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="8">
         <v>26871</v>
       </c>
     </row>
@@ -4416,52 +4363,52 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="30">
         <v>6</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="30">
         <v>20314</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="31">
         <v>9859</v>
       </c>
-      <c r="K12" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="39">
-        <v>0</v>
-      </c>
-      <c r="M12" s="40" t="s">
+      <c r="K12" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0</v>
+      </c>
+      <c r="M12" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="33">
         <v>812</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="34">
         <v>5008</v>
       </c>
-      <c r="Q12" s="42" t="s">
+      <c r="Q12" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="35">
         <v>4635</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="8">
         <v>15679</v>
       </c>
     </row>
@@ -4470,52 +4417,52 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="30">
         <v>1</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="30">
         <v>59068</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="31">
         <v>14772</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="32">
         <v>16328</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="33">
         <v>4994</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="34">
         <v>476</v>
       </c>
-      <c r="Q13" s="42" t="s">
+      <c r="Q13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="35">
         <v>22496</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="8">
         <v>36571</v>
       </c>
     </row>
@@ -4524,52 +4471,52 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="30">
         <v>4</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="30">
         <v>22673</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="31">
         <v>11732</v>
       </c>
-      <c r="K14" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="39">
-        <v>0</v>
-      </c>
-      <c r="M14" s="40" t="s">
+      <c r="K14" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0</v>
+      </c>
+      <c r="M14" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="33">
         <v>455</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="34">
         <v>115</v>
       </c>
-      <c r="Q14" s="42" t="s">
+      <c r="Q14" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="35">
         <v>10372</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="8">
         <v>12301</v>
       </c>
     </row>
@@ -4578,52 +4525,52 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="30">
         <v>2</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="30">
         <v>26893</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="31">
         <v>12308</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="32">
         <v>246</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="N15" s="40">
+      <c r="N15" s="33">
         <v>299</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="34">
         <v>689</v>
       </c>
-      <c r="Q15" s="42" t="s">
+      <c r="Q15" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="35">
         <v>13352</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="8">
         <v>13541</v>
       </c>
     </row>
@@ -4632,52 +4579,52 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="30">
         <v>16</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="30">
         <v>23537</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="31">
         <v>20417</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="32">
         <v>1733</v>
       </c>
-      <c r="M16" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="40">
-        <v>0</v>
-      </c>
-      <c r="O16" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="42" t="s">
+      <c r="M16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="35">
         <v>1387</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="8">
         <v>22150</v>
       </c>
     </row>
@@ -4686,52 +4633,52 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="30">
         <v>11</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="30">
         <v>134175</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="31">
         <v>33602</v>
       </c>
-      <c r="K17" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="39">
-        <v>0</v>
-      </c>
-      <c r="M17" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="40">
-        <v>0</v>
-      </c>
-      <c r="O17" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="42" t="s">
+      <c r="K17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="35">
         <v>100573</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="8">
         <v>33602</v>
       </c>
     </row>
@@ -4740,52 +4687,52 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="30">
         <v>3</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="30">
         <v>24364</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="31">
         <v>8183</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="32">
         <v>1202</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="N18" s="40">
+      <c r="N18" s="33">
         <v>142</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P18" s="34">
         <v>1786</v>
       </c>
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="35">
         <v>13051</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="8">
         <v>11313</v>
       </c>
     </row>
@@ -4794,52 +4741,52 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="30">
         <v>14</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="30">
         <v>23383</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="31">
         <v>21672</v>
       </c>
-      <c r="K19" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="39">
-        <v>0</v>
-      </c>
-      <c r="M19" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="40">
-        <v>0</v>
-      </c>
-      <c r="O19" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="42" t="s">
+      <c r="K19" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="32">
+        <v>0</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="35">
         <v>1711</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="8">
         <v>21672</v>
       </c>
     </row>
@@ -4848,52 +4795,52 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="30">
         <v>7</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="30">
         <v>29539</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="31">
         <v>6083</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="32">
         <v>245</v>
       </c>
-      <c r="M20" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20" s="40">
-        <v>0</v>
-      </c>
-      <c r="O20" s="41" t="s">
+      <c r="M20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="O20" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="34">
         <v>23211</v>
       </c>
-      <c r="Q20" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="R20" s="42">
-        <v>0</v>
-      </c>
-      <c r="S20" s="10" t="s">
+      <c r="Q20" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="35">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="8">
         <v>29539</v>
       </c>
     </row>
@@ -4902,52 +4849,52 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="30">
         <v>12</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="30">
         <v>32609</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="31">
         <v>10518</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="32">
         <v>382</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="40">
+      <c r="N21" s="33">
         <v>496</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="34">
         <v>224</v>
       </c>
-      <c r="Q21" s="42" t="s">
+      <c r="Q21" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="35">
         <v>20990</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="8">
         <v>11619</v>
       </c>
     </row>
@@ -4956,52 +4903,52 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="37">
         <v>17</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="37">
         <v>81207</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="38">
         <v>8253</v>
       </c>
-      <c r="K22" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="46">
-        <v>0</v>
-      </c>
-      <c r="M22" s="47" t="s">
+      <c r="K22" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="39">
+        <v>0</v>
+      </c>
+      <c r="M22" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="N22" s="47">
+      <c r="N22" s="40">
         <v>6298</v>
       </c>
-      <c r="O22" s="48" t="s">
+      <c r="O22" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="P22" s="48">
+      <c r="P22" s="41">
         <v>24687</v>
       </c>
-      <c r="Q22" s="49" t="s">
+      <c r="Q22" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="R22" s="49">
+      <c r="R22" s="42">
         <v>41969</v>
       </c>
-      <c r="S22" s="50" t="s">
+      <c r="S22" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="8">
         <v>39238</v>
       </c>
     </row>

--- a/output/Dimension_overview_OCHA_Somalia___SOM.xlsx
+++ b/output/Dimension_overview_OCHA_Somalia___SOM.xlsx
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -227,6 +227,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -610,7 +617,7 @@
   <cols>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="29" customWidth="1" min="10" max="10"/>
@@ -732,55 +739,55 @@
         </is>
       </c>
       <c r="G6" s="6" t="n">
-        <v>133947</v>
+        <v>4108701</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>40.8%</t>
         </is>
       </c>
       <c r="I6" s="6" t="n">
-        <v>73544</v>
+        <v>1675457</v>
       </c>
       <c r="J6" s="6" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1436</v>
+        <v>88651</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>340</v>
+        <v>195741</v>
       </c>
       <c r="N6" s="6" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="O6" s="6" t="n">
-        <v>13292</v>
+        <v>620791</v>
       </c>
       <c r="P6" s="6" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="Q6" s="6" t="n">
-        <v>45335</v>
+        <v>1528061</v>
       </c>
       <c r="R6" s="6" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="S6" s="7" t="n">
-        <v>88612</v>
+        <v>2580640</v>
       </c>
     </row>
     <row r="7">
@@ -799,55 +806,55 @@
         </is>
       </c>
       <c r="G7" s="8" t="n">
-        <v>93763</v>
+        <v>3203012</v>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>39.4%</t>
         </is>
       </c>
       <c r="I7" s="8" t="n">
-        <v>43883</v>
+        <v>1263088</v>
       </c>
       <c r="J7" s="8" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="K7" s="8" t="n">
-        <v>873</v>
+        <v>62293</v>
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0</v>
+        <v>168026</v>
       </c>
       <c r="N7" s="8" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>16.1%</t>
         </is>
       </c>
       <c r="O7" s="8" t="n">
-        <v>10137</v>
+        <v>516820</v>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>41.5%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>38870</v>
+        <v>1192786</v>
       </c>
       <c r="R7" s="9" t="inlineStr">
         <is>
-          <t>58.5%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="S7" s="10" t="n">
-        <v>54893</v>
+        <v>2010226</v>
       </c>
     </row>
     <row r="8">
@@ -866,55 +873,55 @@
         </is>
       </c>
       <c r="G8" s="8" t="n">
-        <v>13395</v>
+        <v>153574</v>
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>73.5%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I8" s="8" t="n">
-        <v>9849</v>
+        <v>81828</v>
       </c>
       <c r="J8" s="8" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="K8" s="8" t="n">
-        <v>85</v>
+        <v>2596</v>
       </c>
       <c r="L8" s="8" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="M8" s="8" t="n">
-        <v>61</v>
+        <v>2287</v>
       </c>
       <c r="N8" s="8" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>15.8%</t>
         </is>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1353</v>
+        <v>24228</v>
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>15.3%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>2046</v>
+        <v>42636</v>
       </c>
       <c r="R8" s="9" t="inlineStr">
         <is>
-          <t>84.7%</t>
+          <t>72.2%</t>
         </is>
       </c>
       <c r="S8" s="10" t="n">
-        <v>11349</v>
+        <v>110938</v>
       </c>
     </row>
     <row r="9">
@@ -933,55 +940,55 @@
         </is>
       </c>
       <c r="G9" s="8" t="n">
-        <v>26789</v>
+        <v>752114</v>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>74.0%</t>
+          <t>43.9%</t>
         </is>
       </c>
       <c r="I9" s="8" t="n">
-        <v>19812</v>
+        <v>330541</v>
       </c>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="K9" s="8" t="n">
-        <v>477</v>
+        <v>23762</v>
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="M9" s="8" t="n">
-        <v>279</v>
+        <v>25428</v>
       </c>
       <c r="N9" s="8" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>10.6%</t>
         </is>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1802</v>
+        <v>79744</v>
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>16.5%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>4419</v>
+        <v>292639</v>
       </c>
       <c r="R9" s="9" t="inlineStr">
         <is>
-          <t>83.5%</t>
+          <t>61.1%</t>
         </is>
       </c>
       <c r="S9" s="10" t="n">
-        <v>22371</v>
+        <v>459476</v>
       </c>
     </row>
     <row r="10">
@@ -1000,55 +1007,55 @@
         </is>
       </c>
       <c r="G10" s="11" t="n">
-        <v>53579</v>
+        <v>1892921</v>
       </c>
       <c r="H10" s="11" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="I10" s="11" t="n">
-        <v>29418</v>
+        <v>766485</v>
       </c>
       <c r="J10" s="11" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="K10" s="11" t="n">
-        <v>574</v>
+        <v>39344</v>
       </c>
       <c r="L10" s="11" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="M10" s="11" t="n">
-        <v>136</v>
+        <v>89120</v>
       </c>
       <c r="N10" s="11" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>16.2%</t>
         </is>
       </c>
       <c r="O10" s="11" t="n">
-        <v>5317</v>
+        <v>305997</v>
       </c>
       <c r="P10" s="11" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>36.6%</t>
         </is>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>18134</v>
+        <v>691975</v>
       </c>
       <c r="R10" s="12" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>63.4%</t>
         </is>
       </c>
       <c r="S10" s="13" t="n">
-        <v>35445</v>
+        <v>1200947</v>
       </c>
     </row>
     <row r="11">
@@ -1067,55 +1074,55 @@
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>80368</v>
+        <v>2215780</v>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>41.0%</t>
         </is>
       </c>
       <c r="I11" s="11" t="n">
-        <v>44127</v>
+        <v>908972</v>
       </c>
       <c r="J11" s="11" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="K11" s="11" t="n">
-        <v>862</v>
+        <v>49307</v>
       </c>
       <c r="L11" s="11" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="M11" s="11" t="n">
-        <v>204</v>
+        <v>106621</v>
       </c>
       <c r="N11" s="11" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>14.2%</t>
         </is>
       </c>
       <c r="O11" s="11" t="n">
-        <v>7975</v>
+        <v>314794</v>
       </c>
       <c r="P11" s="11" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.7%</t>
         </is>
       </c>
       <c r="Q11" s="11" t="n">
-        <v>27201</v>
+        <v>836086</v>
       </c>
       <c r="R11" s="12" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.3%</t>
         </is>
       </c>
       <c r="S11" s="13" t="n">
-        <v>53167</v>
+        <v>1379694</v>
       </c>
     </row>
     <row r="12">
@@ -1134,55 +1141,55 @@
         </is>
       </c>
       <c r="G12" s="14" t="n">
-        <v>13395</v>
+        <v>762535</v>
       </c>
       <c r="H12" s="14" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="I12" s="14" t="n">
-        <v>7354</v>
+        <v>310051</v>
       </c>
       <c r="J12" s="14" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="K12" s="14" t="n">
-        <v>144</v>
+        <v>19944</v>
       </c>
       <c r="L12" s="14" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="M12" s="14" t="n">
-        <v>34</v>
+        <v>29071</v>
       </c>
       <c r="N12" s="14" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="O12" s="14" t="n">
-        <v>1329</v>
+        <v>80335</v>
       </c>
       <c r="P12" s="14" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>42.4%</t>
         </is>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>4533</v>
+        <v>323134</v>
       </c>
       <c r="R12" s="15" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>57.6%</t>
         </is>
       </c>
       <c r="S12" s="16" t="n">
-        <v>8861</v>
+        <v>439401</v>
       </c>
     </row>
     <row r="13">
@@ -1201,55 +1208,55 @@
         </is>
       </c>
       <c r="G13" s="17" t="n">
-        <v>44649</v>
+        <v>1369567</v>
       </c>
       <c r="H13" s="17" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>40.8%</t>
         </is>
       </c>
       <c r="I13" s="17" t="n">
-        <v>24515</v>
+        <v>558486</v>
       </c>
       <c r="J13" s="17" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="K13" s="17" t="n">
-        <v>479</v>
+        <v>29550</v>
       </c>
       <c r="L13" s="17" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="M13" s="17" t="n">
-        <v>113</v>
+        <v>65247</v>
       </c>
       <c r="N13" s="17" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="O13" s="17" t="n">
-        <v>4431</v>
+        <v>206930</v>
       </c>
       <c r="P13" s="17" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="Q13" s="17" t="n">
-        <v>15112</v>
+        <v>509354</v>
       </c>
       <c r="R13" s="18" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="S13" s="19" t="n">
-        <v>29537</v>
+        <v>860213</v>
       </c>
     </row>
     <row r="14">
@@ -1268,55 +1275,55 @@
         </is>
       </c>
       <c r="G14" s="17" t="n">
-        <v>55811</v>
+        <v>1711959</v>
       </c>
       <c r="H14" s="17" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>40.8%</t>
         </is>
       </c>
       <c r="I14" s="17" t="n">
-        <v>30643</v>
+        <v>698107</v>
       </c>
       <c r="J14" s="17" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="K14" s="17" t="n">
-        <v>598</v>
+        <v>36938</v>
       </c>
       <c r="L14" s="17" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="M14" s="17" t="n">
-        <v>142</v>
+        <v>81559</v>
       </c>
       <c r="N14" s="17" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="O14" s="17" t="n">
-        <v>5538</v>
+        <v>258663</v>
       </c>
       <c r="P14" s="17" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="Q14" s="17" t="n">
-        <v>18889</v>
+        <v>636692</v>
       </c>
       <c r="R14" s="18" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="S14" s="19" t="n">
-        <v>36922</v>
+        <v>1075267</v>
       </c>
     </row>
     <row r="15">
@@ -1335,55 +1342,55 @@
         </is>
       </c>
       <c r="G15" s="17" t="n">
-        <v>33487</v>
+        <v>1027175</v>
       </c>
       <c r="H15" s="17" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>40.8%</t>
         </is>
       </c>
       <c r="I15" s="17" t="n">
-        <v>18386</v>
+        <v>418864</v>
       </c>
       <c r="J15" s="17" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="K15" s="17" t="n">
-        <v>359</v>
+        <v>22163</v>
       </c>
       <c r="L15" s="17" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="M15" s="17" t="n">
-        <v>85</v>
+        <v>48935</v>
       </c>
       <c r="N15" s="17" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="O15" s="17" t="n">
-        <v>3323</v>
+        <v>155198</v>
       </c>
       <c r="P15" s="17" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="Q15" s="17" t="n">
-        <v>11334</v>
+        <v>382015</v>
       </c>
       <c r="R15" s="18" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="S15" s="19" t="n">
-        <v>22153</v>
+        <v>645160</v>
       </c>
     </row>
     <row r="16">
@@ -1402,55 +1409,55 @@
         </is>
       </c>
       <c r="G16" s="20" t="n">
-        <v>13395</v>
+        <v>410870</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>40.8%</t>
         </is>
       </c>
       <c r="I16" s="20" t="n">
-        <v>7354</v>
+        <v>167546</v>
       </c>
       <c r="J16" s="20" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="K16" s="20" t="n">
-        <v>144</v>
+        <v>8865</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="M16" s="20" t="n">
-        <v>34</v>
+        <v>19574</v>
       </c>
       <c r="N16" s="20" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="O16" s="20" t="n">
-        <v>1329</v>
+        <v>62079</v>
       </c>
       <c r="P16" s="20" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="Q16" s="20" t="n">
-        <v>4533</v>
+        <v>152806</v>
       </c>
       <c r="R16" s="21" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="S16" s="22" t="n">
-        <v>8861</v>
+        <v>258064</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1478,7 +1485,7 @@
     <col width="44" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="29" customWidth="1" min="11" max="11"/>
@@ -1510,7 +1517,7 @@
       <c r="D5" s="23" t="n"/>
       <c r="E5" s="24" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="F5" s="24" t="inlineStr">
@@ -1596,67 +1603,1677 @@
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="31" t="inlineStr">
         <is>
+          <t>afgooye</t>
+        </is>
+      </c>
+      <c r="F6" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H6" s="32" t="n">
+        <v>243100</v>
+      </c>
+      <c r="I6" s="33" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J6" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35" t="inlineStr">
+        <is>
+          <t>22.1%</t>
+        </is>
+      </c>
+      <c r="N6" s="35" t="n">
+        <v>53665</v>
+      </c>
+      <c r="O6" s="36" t="inlineStr">
+        <is>
+          <t>41.9%</t>
+        </is>
+      </c>
+      <c r="P6" s="36" t="n">
+        <v>101746</v>
+      </c>
+      <c r="Q6" s="37" t="inlineStr">
+        <is>
+          <t>36.1%</t>
+        </is>
+      </c>
+      <c r="R6" s="37" t="n">
+        <v>87688</v>
+      </c>
+      <c r="S6" s="9" t="inlineStr">
+        <is>
+          <t>63.9%</t>
+        </is>
+      </c>
+      <c r="T6" s="10" t="n">
+        <v>155412</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="31" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="F7" s="32" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H7" s="32" t="n">
+        <v>115725</v>
+      </c>
+      <c r="I7" s="33" t="inlineStr">
+        <is>
+          <t>59.4%</t>
+        </is>
+      </c>
+      <c r="J7" s="33" t="n">
+        <v>68701</v>
+      </c>
+      <c r="K7" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="36" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="P7" s="36" t="n">
+        <v>6964</v>
+      </c>
+      <c r="Q7" s="37" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="R7" s="37" t="n">
+        <v>40061</v>
+      </c>
+      <c r="S7" s="9" t="inlineStr">
+        <is>
+          <t>65.4%</t>
+        </is>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>75665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="31" t="inlineStr">
+        <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F6" s="32" t="n">
+      <c r="F8" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="32" t="inlineStr">
+      <c r="G8" s="32" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H8" s="32" t="n">
         <v>93763</v>
       </c>
-      <c r="I6" s="33" t="inlineStr">
+      <c r="I8" s="33" t="inlineStr">
+        <is>
+          <t>49.0%</t>
+        </is>
+      </c>
+      <c r="J8" s="33" t="n">
+        <v>45945</v>
+      </c>
+      <c r="K8" s="34" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="L8" s="34" t="n">
+        <v>972</v>
+      </c>
+      <c r="M8" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="36" t="inlineStr">
+        <is>
+          <t>13.8%</t>
+        </is>
+      </c>
+      <c r="P8" s="36" t="n">
+        <v>12917</v>
+      </c>
+      <c r="Q8" s="37" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="R8" s="37" t="n">
+        <v>33929</v>
+      </c>
+      <c r="S8" s="9" t="inlineStr">
+        <is>
+          <t>63.8%</t>
+        </is>
+      </c>
+      <c r="T8" s="10" t="n">
+        <v>59834</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="31" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="F9" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H9" s="32" t="n">
+        <v>173573</v>
+      </c>
+      <c r="I9" s="33" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="J9" s="33" t="n">
+        <v>84643</v>
+      </c>
+      <c r="K9" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="35" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="N9" s="35" t="n">
+        <v>32054</v>
+      </c>
+      <c r="O9" s="36" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="P9" s="36" t="n">
+        <v>32054</v>
+      </c>
+      <c r="Q9" s="37" t="inlineStr">
+        <is>
+          <t>14.3%</t>
+        </is>
+      </c>
+      <c r="R9" s="37" t="n">
+        <v>24824</v>
+      </c>
+      <c r="S9" s="9" t="inlineStr">
+        <is>
+          <t>85.7%</t>
+        </is>
+      </c>
+      <c r="T9" s="10" t="n">
+        <v>148750</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="31" t="inlineStr">
+        <is>
+          <t>baydhaba</t>
+        </is>
+      </c>
+      <c r="F10" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H10" s="32" t="n">
+        <v>240015</v>
+      </c>
+      <c r="I10" s="33" t="inlineStr">
+        <is>
+          <t>16.9%</t>
+        </is>
+      </c>
+      <c r="J10" s="33" t="n">
+        <v>40505</v>
+      </c>
+      <c r="K10" s="34" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="L10" s="34" t="n">
+        <v>3827</v>
+      </c>
+      <c r="M10" s="35" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="N10" s="35" t="n">
+        <v>14855</v>
+      </c>
+      <c r="O10" s="36" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+      <c r="P10" s="36" t="n">
+        <v>16764</v>
+      </c>
+      <c r="Q10" s="37" t="inlineStr">
+        <is>
+          <t>68.4%</t>
+        </is>
+      </c>
+      <c r="R10" s="37" t="n">
+        <v>164063</v>
+      </c>
+      <c r="S10" s="9" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="T10" s="10" t="n">
+        <v>75951</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="31" t="inlineStr">
+        <is>
+          <t>borama</t>
+        </is>
+      </c>
+      <c r="F11" s="32" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H11" s="32" t="n">
+        <v>81852</v>
+      </c>
+      <c r="I11" s="33" t="inlineStr">
+        <is>
+          <t>26.9%</t>
+        </is>
+      </c>
+      <c r="J11" s="33" t="n">
+        <v>22017</v>
+      </c>
+      <c r="K11" s="34" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="L11" s="34" t="n">
+        <v>3547</v>
+      </c>
+      <c r="M11" s="35" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="N11" s="35" t="n">
+        <v>4042</v>
+      </c>
+      <c r="O11" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="37" t="inlineStr">
+        <is>
+          <t>63.8%</t>
+        </is>
+      </c>
+      <c r="R11" s="37" t="n">
+        <v>52247</v>
+      </c>
+      <c r="S11" s="9" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="T11" s="10" t="n">
+        <v>29606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="31" t="inlineStr">
+        <is>
+          <t>buur_hakaba</t>
+        </is>
+      </c>
+      <c r="F12" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H12" s="32" t="n">
+        <v>94050</v>
+      </c>
+      <c r="I12" s="33" t="inlineStr">
+        <is>
+          <t>91.2%</t>
+        </is>
+      </c>
+      <c r="J12" s="33" t="n">
+        <v>85742</v>
+      </c>
+      <c r="K12" s="34" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="L12" s="34" t="n">
+        <v>4138</v>
+      </c>
+      <c r="M12" s="35" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="N12" s="35" t="n">
+        <v>1390</v>
+      </c>
+      <c r="O12" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="37" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="R12" s="37" t="n">
+        <v>2780</v>
+      </c>
+      <c r="S12" s="9" t="inlineStr">
+        <is>
+          <t>97.0%</t>
+        </is>
+      </c>
+      <c r="T12" s="10" t="n">
+        <v>91270</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="31" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="F13" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H13" s="32" t="n">
+        <v>71100</v>
+      </c>
+      <c r="I13" s="33" t="inlineStr">
+        <is>
+          <t>56.8%</t>
+        </is>
+      </c>
+      <c r="J13" s="33" t="n">
+        <v>40382</v>
+      </c>
+      <c r="K13" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="35" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="N13" s="35" t="n">
+        <v>2991</v>
+      </c>
+      <c r="O13" s="36" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="P13" s="36" t="n">
+        <v>4690</v>
+      </c>
+      <c r="Q13" s="37" t="inlineStr">
+        <is>
+          <t>32.4%</t>
+        </is>
+      </c>
+      <c r="R13" s="37" t="n">
+        <v>23037</v>
+      </c>
+      <c r="S13" s="9" t="inlineStr">
+        <is>
+          <t>67.6%</t>
+        </is>
+      </c>
+      <c r="T13" s="10" t="n">
+        <v>48063</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="31" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="F14" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H14" s="32" t="n">
+        <v>206737</v>
+      </c>
+      <c r="I14" s="33" t="inlineStr">
+        <is>
+          <t>41.0%</t>
+        </is>
+      </c>
+      <c r="J14" s="33" t="n">
+        <v>84743</v>
+      </c>
+      <c r="K14" s="34" t="inlineStr">
+        <is>
+          <t>9.9%</t>
+        </is>
+      </c>
+      <c r="L14" s="34" t="n">
+        <v>20528</v>
+      </c>
+      <c r="M14" s="35" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="N14" s="35" t="n">
+        <v>5465</v>
+      </c>
+      <c r="O14" s="36" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="P14" s="36" t="n">
+        <v>10175</v>
+      </c>
+      <c r="Q14" s="37" t="inlineStr">
+        <is>
+          <t>41.5%</t>
+        </is>
+      </c>
+      <c r="R14" s="37" t="n">
+        <v>85825</v>
+      </c>
+      <c r="S14" s="9" t="inlineStr">
+        <is>
+          <t>58.5%</t>
+        </is>
+      </c>
+      <c r="T14" s="10" t="n">
+        <v>120911</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="31" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="F15" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H15" s="32" t="n">
+        <v>79357</v>
+      </c>
+      <c r="I15" s="33" t="inlineStr">
+        <is>
+          <t>43.0%</t>
+        </is>
+      </c>
+      <c r="J15" s="33" t="n">
+        <v>34116</v>
+      </c>
+      <c r="K15" s="34" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="L15" s="34" t="n">
+        <v>165</v>
+      </c>
+      <c r="M15" s="35" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="N15" s="35" t="n">
+        <v>302</v>
+      </c>
+      <c r="O15" s="36" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="P15" s="36" t="n">
+        <v>2528</v>
+      </c>
+      <c r="Q15" s="37" t="inlineStr">
+        <is>
+          <t>53.2%</t>
+        </is>
+      </c>
+      <c r="R15" s="37" t="n">
+        <v>42247</v>
+      </c>
+      <c r="S15" s="9" t="inlineStr">
         <is>
           <t>46.8%</t>
         </is>
       </c>
-      <c r="J6" s="33" t="n">
-        <v>43883</v>
-      </c>
-      <c r="K6" s="34" t="inlineStr">
+      <c r="T15" s="10" t="n">
+        <v>37110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="31" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="F16" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H16" s="32" t="n">
+        <v>94127</v>
+      </c>
+      <c r="I16" s="33" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="J16" s="33" t="n">
+        <v>18837</v>
+      </c>
+      <c r="K16" s="34" t="inlineStr">
         <is>
           <t>0.9%</t>
         </is>
       </c>
-      <c r="L6" s="34" t="n">
-        <v>873</v>
-      </c>
-      <c r="M6" s="35" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="N6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="36" t="inlineStr">
-        <is>
-          <t>10.8%</t>
-        </is>
-      </c>
-      <c r="P6" s="36" t="n">
-        <v>10137</v>
-      </c>
-      <c r="Q6" s="37" t="inlineStr">
-        <is>
-          <t>41.5%</t>
-        </is>
-      </c>
-      <c r="R6" s="37" t="n">
-        <v>38870</v>
-      </c>
-      <c r="S6" s="38" t="inlineStr">
-        <is>
-          <t>58.5%</t>
-        </is>
-      </c>
-      <c r="T6" s="10" t="n">
-        <v>54893</v>
+      <c r="L16" s="34" t="n">
+        <v>819</v>
+      </c>
+      <c r="M16" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="36" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="P16" s="36" t="n">
+        <v>586</v>
+      </c>
+      <c r="Q16" s="37" t="inlineStr">
+        <is>
+          <t>78.5%</t>
+        </is>
+      </c>
+      <c r="R16" s="37" t="n">
+        <v>73884</v>
+      </c>
+      <c r="S16" s="9" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="T16" s="10" t="n">
+        <v>20243</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="31" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="F17" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H17" s="32" t="n">
+        <v>82380</v>
+      </c>
+      <c r="I17" s="33" t="inlineStr">
+        <is>
+          <t>90.1%</t>
+        </is>
+      </c>
+      <c r="J17" s="33" t="n">
+        <v>74257</v>
+      </c>
+      <c r="K17" s="34" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="L17" s="34" t="n">
+        <v>2538</v>
+      </c>
+      <c r="M17" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="37" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="R17" s="37" t="n">
+        <v>5585</v>
+      </c>
+      <c r="S17" s="9" t="inlineStr">
+        <is>
+          <t>93.2%</t>
+        </is>
+      </c>
+      <c r="T17" s="10" t="n">
+        <v>76795</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="31" t="inlineStr">
+        <is>
+          <t>gebiley</t>
+        </is>
+      </c>
+      <c r="F18" s="32" t="n">
+        <v>23</v>
+      </c>
+      <c r="G18" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H18" s="32" t="n">
+        <v>75316</v>
+      </c>
+      <c r="I18" s="33" t="inlineStr">
+        <is>
+          <t>29.8%</t>
+        </is>
+      </c>
+      <c r="J18" s="33" t="n">
+        <v>22413</v>
+      </c>
+      <c r="K18" s="34" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="L18" s="34" t="n">
+        <v>3328</v>
+      </c>
+      <c r="M18" s="35" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="N18" s="35" t="n">
+        <v>1535</v>
+      </c>
+      <c r="O18" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P18" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="37" t="inlineStr">
+        <is>
+          <t>63.8%</t>
+        </is>
+      </c>
+      <c r="R18" s="37" t="n">
+        <v>48040</v>
+      </c>
+      <c r="S18" s="9" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="T18" s="10" t="n">
+        <v>27276</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="31" t="inlineStr">
+        <is>
+          <t>hargeysa</t>
+        </is>
+      </c>
+      <c r="F19" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H19" s="32" t="n">
+        <v>49284</v>
+      </c>
+      <c r="I19" s="33" t="inlineStr">
+        <is>
+          <t>40.8%</t>
+        </is>
+      </c>
+      <c r="J19" s="33" t="n">
+        <v>20086</v>
+      </c>
+      <c r="K19" s="34" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="L19" s="34" t="n">
+        <v>2946</v>
+      </c>
+      <c r="M19" s="35" t="inlineStr">
+        <is>
+          <t>15.0%</t>
+        </is>
+      </c>
+      <c r="N19" s="35" t="n">
+        <v>7389</v>
+      </c>
+      <c r="O19" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P19" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="37" t="inlineStr">
+        <is>
+          <t>38.3%</t>
+        </is>
+      </c>
+      <c r="R19" s="37" t="n">
+        <v>18863</v>
+      </c>
+      <c r="S19" s="9" t="inlineStr">
+        <is>
+          <t>61.7%</t>
+        </is>
+      </c>
+      <c r="T19" s="10" t="n">
+        <v>30421</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="31" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="F20" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H20" s="32" t="n">
+        <v>469612</v>
+      </c>
+      <c r="I20" s="33" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
+      <c r="J20" s="33" t="n">
+        <v>254687</v>
+      </c>
+      <c r="K20" s="34" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="L20" s="34" t="n">
+        <v>5560</v>
+      </c>
+      <c r="M20" s="35" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="N20" s="35" t="n">
+        <v>20542</v>
+      </c>
+      <c r="O20" s="36" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="P20" s="36" t="n">
+        <v>2342</v>
+      </c>
+      <c r="Q20" s="37" t="inlineStr">
+        <is>
+          <t>39.7%</t>
+        </is>
+      </c>
+      <c r="R20" s="37" t="n">
+        <v>186481</v>
+      </c>
+      <c r="S20" s="9" t="inlineStr">
+        <is>
+          <t>60.3%</t>
+        </is>
+      </c>
+      <c r="T20" s="10" t="n">
+        <v>283132</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="31" t="inlineStr">
+        <is>
+          <t>jariiban</t>
+        </is>
+      </c>
+      <c r="F21" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H21" s="32" t="n">
+        <v>77970</v>
+      </c>
+      <c r="I21" s="33" t="inlineStr">
+        <is>
+          <t>50.4%</t>
+        </is>
+      </c>
+      <c r="J21" s="33" t="n">
+        <v>39276</v>
+      </c>
+      <c r="K21" s="34" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="L21" s="34" t="n">
+        <v>5685</v>
+      </c>
+      <c r="M21" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="37" t="inlineStr">
+        <is>
+          <t>42.3%</t>
+        </is>
+      </c>
+      <c r="R21" s="37" t="n">
+        <v>33009</v>
+      </c>
+      <c r="S21" s="9" t="inlineStr">
+        <is>
+          <t>57.7%</t>
+        </is>
+      </c>
+      <c r="T21" s="10" t="n">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="31" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="F22" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H22" s="32" t="n">
+        <v>85275</v>
+      </c>
+      <c r="I22" s="33" t="inlineStr">
+        <is>
+          <t>57.9%</t>
+        </is>
+      </c>
+      <c r="J22" s="33" t="n">
+        <v>49414</v>
+      </c>
+      <c r="K22" s="34" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="L22" s="34" t="n">
+        <v>1691</v>
+      </c>
+      <c r="M22" s="35" t="inlineStr">
+        <is>
+          <t>14.9%</t>
+        </is>
+      </c>
+      <c r="N22" s="35" t="n">
+        <v>12675</v>
+      </c>
+      <c r="O22" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P22" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="37" t="inlineStr">
+        <is>
+          <t>25.2%</t>
+        </is>
+      </c>
+      <c r="R22" s="37" t="n">
+        <v>21495</v>
+      </c>
+      <c r="S22" s="9" t="inlineStr">
+        <is>
+          <t>74.8%</t>
+        </is>
+      </c>
+      <c r="T22" s="10" t="n">
+        <v>63780</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="31" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="F23" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H23" s="32" t="n">
+        <v>81840</v>
+      </c>
+      <c r="I23" s="33" t="inlineStr">
+        <is>
+          <t>42.5%</t>
+        </is>
+      </c>
+      <c r="J23" s="33" t="n">
+        <v>34791</v>
+      </c>
+      <c r="K23" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="37" t="inlineStr">
+        <is>
+          <t>57.5%</t>
+        </is>
+      </c>
+      <c r="R23" s="37" t="n">
+        <v>47049</v>
+      </c>
+      <c r="S23" s="9" t="inlineStr">
+        <is>
+          <t>42.5%</t>
+        </is>
+      </c>
+      <c r="T23" s="10" t="n">
+        <v>34791</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="31" t="inlineStr">
+        <is>
+          <t>owdweyne</t>
+        </is>
+      </c>
+      <c r="F24" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="G24" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H24" s="32" t="n">
+        <v>116609</v>
+      </c>
+      <c r="I24" s="33" t="inlineStr">
+        <is>
+          <t>30.1%</t>
+        </is>
+      </c>
+      <c r="J24" s="33" t="n">
+        <v>35093</v>
+      </c>
+      <c r="K24" s="34" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="L24" s="34" t="n">
+        <v>6549</v>
+      </c>
+      <c r="M24" s="35" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="N24" s="35" t="n">
+        <v>4776</v>
+      </c>
+      <c r="O24" s="36" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="P24" s="36" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q24" s="37" t="inlineStr">
+        <is>
+          <t>59.9%</t>
+        </is>
+      </c>
+      <c r="R24" s="37" t="n">
+        <v>69845</v>
+      </c>
+      <c r="S24" s="9" t="inlineStr">
+        <is>
+          <t>40.1%</t>
+        </is>
+      </c>
+      <c r="T24" s="10" t="n">
+        <v>46765</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="31" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="F25" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H25" s="32" t="n">
+        <v>103387</v>
+      </c>
+      <c r="I25" s="33" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
+      <c r="J25" s="33" t="n">
+        <v>56024</v>
+      </c>
+      <c r="K25" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="36" t="inlineStr">
+        <is>
+          <t>34.5%</t>
+        </is>
+      </c>
+      <c r="P25" s="36" t="n">
+        <v>35711</v>
+      </c>
+      <c r="Q25" s="37" t="inlineStr">
+        <is>
+          <t>11.3%</t>
+        </is>
+      </c>
+      <c r="R25" s="37" t="n">
+        <v>11652</v>
+      </c>
+      <c r="S25" s="9" t="inlineStr">
+        <is>
+          <t>88.7%</t>
+        </is>
+      </c>
+      <c r="T25" s="10" t="n">
+        <v>91735</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="31" t="inlineStr">
+        <is>
+          <t>qoryooley</t>
+        </is>
+      </c>
+      <c r="F26" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="G26" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H26" s="32" t="n">
+        <v>70760</v>
+      </c>
+      <c r="I26" s="33" t="inlineStr">
+        <is>
+          <t>74.5%</t>
+        </is>
+      </c>
+      <c r="J26" s="33" t="n">
+        <v>52690</v>
+      </c>
+      <c r="K26" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L26" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="35" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="N26" s="35" t="n">
+        <v>655</v>
+      </c>
+      <c r="O26" s="36" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="P26" s="36" t="n">
+        <v>992</v>
+      </c>
+      <c r="Q26" s="37" t="inlineStr">
+        <is>
+          <t>23.2%</t>
+        </is>
+      </c>
+      <c r="R26" s="37" t="n">
+        <v>16422</v>
+      </c>
+      <c r="S26" s="9" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="T26" s="10" t="n">
+        <v>54338</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="31" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="F27" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H27" s="32" t="n">
+        <v>114132</v>
+      </c>
+      <c r="I27" s="33" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="J27" s="33" t="n">
+        <v>57150</v>
+      </c>
+      <c r="K27" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="37" t="inlineStr">
+        <is>
+          <t>49.9%</t>
+        </is>
+      </c>
+      <c r="R27" s="37" t="n">
+        <v>56982</v>
+      </c>
+      <c r="S27" s="9" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="T27" s="10" t="n">
+        <v>57150</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="31" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="F28" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="G28" s="32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H28" s="32" t="n">
+        <v>284225</v>
+      </c>
+      <c r="I28" s="33" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J28" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="36" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P28" s="36" t="n">
+        <v>284225</v>
+      </c>
+      <c r="Q28" s="37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R28" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="T28" s="10" t="n">
+        <v>284225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="38" t="inlineStr">
+        <is>
+          <t>xudur</t>
+        </is>
+      </c>
+      <c r="F29" s="39" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" s="39" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H29" s="39" t="n">
+        <v>98820</v>
+      </c>
+      <c r="I29" s="40" t="inlineStr">
+        <is>
+          <t>42.1%</t>
+        </is>
+      </c>
+      <c r="J29" s="40" t="n">
+        <v>41576</v>
+      </c>
+      <c r="K29" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L29" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="42" t="inlineStr">
+        <is>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="N29" s="42" t="n">
+        <v>5691</v>
+      </c>
+      <c r="O29" s="43" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="P29" s="43" t="n">
+        <v>4777</v>
+      </c>
+      <c r="Q29" s="44" t="inlineStr">
+        <is>
+          <t>47.3%</t>
+        </is>
+      </c>
+      <c r="R29" s="44" t="n">
+        <v>46777</v>
+      </c>
+      <c r="S29" s="45" t="inlineStr">
+        <is>
+          <t>52.7%</t>
+        </is>
+      </c>
+      <c r="T29" s="10" t="n">
+        <v>52044</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +3290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1716,7 +3333,7 @@
       <c r="D5" s="23" t="n"/>
       <c r="E5" s="24" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="F5" s="24" t="inlineStr">
@@ -1802,67 +3419,487 @@
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="31" t="inlineStr">
         <is>
+          <t>afgooye</t>
+        </is>
+      </c>
+      <c r="F6" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="32" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H6" s="32" t="n">
+        <v>34729</v>
+      </c>
+      <c r="I6" s="33" t="inlineStr">
+        <is>
+          <t>64.3%</t>
+        </is>
+      </c>
+      <c r="J6" s="33" t="n">
+        <v>22341</v>
+      </c>
+      <c r="K6" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="36" t="inlineStr">
+        <is>
+          <t>23.2%</t>
+        </is>
+      </c>
+      <c r="P6" s="36" t="n">
+        <v>8052</v>
+      </c>
+      <c r="Q6" s="37" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="R6" s="37" t="n">
+        <v>4335</v>
+      </c>
+      <c r="S6" s="9" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="T6" s="10" t="n">
+        <v>30393</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="31" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="F7" s="32" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H7" s="32" t="n">
+        <v>16532</v>
+      </c>
+      <c r="I7" s="33" t="inlineStr">
+        <is>
+          <t>55.3%</t>
+        </is>
+      </c>
+      <c r="J7" s="33" t="n">
+        <v>9149</v>
+      </c>
+      <c r="K7" s="34" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="L7" s="34" t="n">
+        <v>707</v>
+      </c>
+      <c r="M7" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="36" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="P7" s="36" t="n">
+        <v>654</v>
+      </c>
+      <c r="Q7" s="37" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="R7" s="37" t="n">
+        <v>6022</v>
+      </c>
+      <c r="S7" s="9" t="inlineStr">
+        <is>
+          <t>63.6%</t>
+        </is>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>10510</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="31" t="inlineStr">
+        <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F6" s="32" t="n">
+      <c r="F8" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="32" t="inlineStr">
+      <c r="G8" s="32" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H8" s="32" t="n">
         <v>13395</v>
       </c>
-      <c r="I6" s="33" t="inlineStr">
-        <is>
-          <t>73.5%</t>
-        </is>
-      </c>
-      <c r="J6" s="33" t="n">
-        <v>9849</v>
-      </c>
-      <c r="K6" s="34" t="inlineStr">
+      <c r="I8" s="33" t="inlineStr">
+        <is>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="J8" s="33" t="n">
+        <v>10064</v>
+      </c>
+      <c r="K8" s="34" t="inlineStr">
         <is>
           <t>0.6%</t>
         </is>
       </c>
-      <c r="L6" s="34" t="n">
-        <v>85</v>
-      </c>
-      <c r="M6" s="35" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="N6" s="35" t="n">
-        <v>61</v>
-      </c>
-      <c r="O6" s="36" t="inlineStr">
-        <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="P6" s="36" t="n">
-        <v>1353</v>
-      </c>
-      <c r="Q6" s="37" t="inlineStr">
-        <is>
-          <t>15.3%</t>
-        </is>
-      </c>
-      <c r="R6" s="37" t="n">
-        <v>2046</v>
-      </c>
-      <c r="S6" s="38" t="inlineStr">
-        <is>
-          <t>84.7%</t>
-        </is>
-      </c>
-      <c r="T6" s="10" t="n">
-        <v>11349</v>
+      <c r="L8" s="34" t="n">
+        <v>80</v>
+      </c>
+      <c r="M8" s="35" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="N8" s="35" t="n">
+        <v>80</v>
+      </c>
+      <c r="O8" s="36" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="P8" s="36" t="n">
+        <v>1268</v>
+      </c>
+      <c r="Q8" s="37" t="inlineStr">
+        <is>
+          <t>14.2%</t>
+        </is>
+      </c>
+      <c r="R8" s="37" t="n">
+        <v>1903</v>
+      </c>
+      <c r="S8" s="9" t="inlineStr">
+        <is>
+          <t>85.8%</t>
+        </is>
+      </c>
+      <c r="T8" s="10" t="n">
+        <v>11491</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="31" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="F9" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="32" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H9" s="32" t="n">
+        <v>24796</v>
+      </c>
+      <c r="I9" s="33" t="inlineStr">
+        <is>
+          <t>68.4%</t>
+        </is>
+      </c>
+      <c r="J9" s="33" t="n">
+        <v>16958</v>
+      </c>
+      <c r="K9" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="35" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+      <c r="N9" s="35" t="n">
+        <v>1732</v>
+      </c>
+      <c r="O9" s="36" t="inlineStr">
+        <is>
+          <t>24.6%</t>
+        </is>
+      </c>
+      <c r="P9" s="36" t="n">
+        <v>6106</v>
+      </c>
+      <c r="Q9" s="37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="T9" s="10" t="n">
+        <v>24796</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="31" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="F10" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H10" s="32" t="n">
+        <v>11337</v>
+      </c>
+      <c r="I10" s="33" t="inlineStr">
+        <is>
+          <t>65.8%</t>
+        </is>
+      </c>
+      <c r="J10" s="33" t="n">
+        <v>7459</v>
+      </c>
+      <c r="K10" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="35" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="N10" s="35" t="n">
+        <v>134</v>
+      </c>
+      <c r="O10" s="36" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="P10" s="36" t="n">
+        <v>621</v>
+      </c>
+      <c r="Q10" s="37" t="inlineStr">
+        <is>
+          <t>27.5%</t>
+        </is>
+      </c>
+      <c r="R10" s="37" t="n">
+        <v>3123</v>
+      </c>
+      <c r="S10" s="9" t="inlineStr">
+        <is>
+          <t>72.5%</t>
+        </is>
+      </c>
+      <c r="T10" s="10" t="n">
+        <v>8213</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="31" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="F11" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H11" s="32" t="n">
+        <v>12182</v>
+      </c>
+      <c r="I11" s="33" t="inlineStr">
+        <is>
+          <t>68.9%</t>
+        </is>
+      </c>
+      <c r="J11" s="33" t="n">
+        <v>8390</v>
+      </c>
+      <c r="K11" s="34" t="inlineStr">
+        <is>
+          <t>7.2%</t>
+        </is>
+      </c>
+      <c r="L11" s="34" t="n">
+        <v>880</v>
+      </c>
+      <c r="M11" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="36" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="P11" s="36" t="n">
+        <v>498</v>
+      </c>
+      <c r="Q11" s="37" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="R11" s="37" t="n">
+        <v>2415</v>
+      </c>
+      <c r="S11" s="9" t="inlineStr">
+        <is>
+          <t>80.2%</t>
+        </is>
+      </c>
+      <c r="T11" s="10" t="n">
+        <v>9767</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="38" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="F12" s="39" t="n">
+        <v>17</v>
+      </c>
+      <c r="G12" s="39" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H12" s="39" t="n">
+        <v>40604</v>
+      </c>
+      <c r="I12" s="40" t="inlineStr">
+        <is>
+          <t>18.4%</t>
+        </is>
+      </c>
+      <c r="J12" s="40" t="n">
+        <v>7468</v>
+      </c>
+      <c r="K12" s="41" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="L12" s="41" t="n">
+        <v>929</v>
+      </c>
+      <c r="M12" s="42" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="N12" s="42" t="n">
+        <v>341</v>
+      </c>
+      <c r="O12" s="43" t="inlineStr">
+        <is>
+          <t>17.3%</t>
+        </is>
+      </c>
+      <c r="P12" s="43" t="n">
+        <v>7029</v>
+      </c>
+      <c r="Q12" s="44" t="inlineStr">
+        <is>
+          <t>61.2%</t>
+        </is>
+      </c>
+      <c r="R12" s="44" t="n">
+        <v>24837</v>
+      </c>
+      <c r="S12" s="45" t="inlineStr">
+        <is>
+          <t>38.8%</t>
+        </is>
+      </c>
+      <c r="T12" s="10" t="n">
+        <v>15767</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +3916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,7 +3927,7 @@
     <col width="45" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="29" customWidth="1" min="11" max="11"/>
@@ -1922,7 +3959,7 @@
       <c r="D5" s="23" t="n"/>
       <c r="E5" s="24" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="F5" s="24" t="inlineStr">
@@ -2008,67 +4045,1187 @@
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="31" t="inlineStr">
         <is>
+          <t>afgooye</t>
+        </is>
+      </c>
+      <c r="F6" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H6" s="32" t="n">
+        <v>69457</v>
+      </c>
+      <c r="I6" s="33" t="inlineStr">
+        <is>
+          <t>79.9%</t>
+        </is>
+      </c>
+      <c r="J6" s="33" t="n">
+        <v>55512</v>
+      </c>
+      <c r="K6" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="N6" s="35" t="n">
+        <v>5487</v>
+      </c>
+      <c r="O6" s="36" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+      <c r="P6" s="36" t="n">
+        <v>4537</v>
+      </c>
+      <c r="Q6" s="37" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="R6" s="37" t="n">
+        <v>3921</v>
+      </c>
+      <c r="S6" s="9" t="inlineStr">
+        <is>
+          <t>94.4%</t>
+        </is>
+      </c>
+      <c r="T6" s="10" t="n">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="31" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="F7" s="32" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H7" s="32" t="n">
+        <v>33064</v>
+      </c>
+      <c r="I7" s="33" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="J7" s="33" t="n">
+        <v>25288</v>
+      </c>
+      <c r="K7" s="34" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="L7" s="34" t="n">
+        <v>712</v>
+      </c>
+      <c r="M7" s="35" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="N7" s="35" t="n">
+        <v>263</v>
+      </c>
+      <c r="O7" s="36" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="P7" s="36" t="n">
+        <v>243</v>
+      </c>
+      <c r="Q7" s="37" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="R7" s="37" t="n">
+        <v>6558</v>
+      </c>
+      <c r="S7" s="9" t="inlineStr">
+        <is>
+          <t>80.2%</t>
+        </is>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>26506</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="31" t="inlineStr">
+        <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F6" s="32" t="n">
+      <c r="F8" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="32" t="inlineStr">
+      <c r="G8" s="32" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H8" s="32" t="n">
         <v>26789</v>
       </c>
-      <c r="I6" s="33" t="inlineStr">
+      <c r="I8" s="33" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J8" s="33" t="n">
+        <v>20080</v>
+      </c>
+      <c r="K8" s="34" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="L8" s="34" t="n">
+        <v>470</v>
+      </c>
+      <c r="M8" s="35" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="N8" s="35" t="n">
+        <v>227</v>
+      </c>
+      <c r="O8" s="36" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="P8" s="36" t="n">
+        <v>1595</v>
+      </c>
+      <c r="Q8" s="37" t="inlineStr">
+        <is>
+          <t>16.5%</t>
+        </is>
+      </c>
+      <c r="R8" s="37" t="n">
+        <v>4417</v>
+      </c>
+      <c r="S8" s="9" t="inlineStr">
+        <is>
+          <t>83.5%</t>
+        </is>
+      </c>
+      <c r="T8" s="10" t="n">
+        <v>22373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="31" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="F9" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H9" s="32" t="n">
+        <v>49592</v>
+      </c>
+      <c r="I9" s="33" t="inlineStr">
+        <is>
+          <t>27.0%</t>
+        </is>
+      </c>
+      <c r="J9" s="33" t="n">
+        <v>13404</v>
+      </c>
+      <c r="K9" s="34" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="L9" s="34" t="n">
+        <v>395</v>
+      </c>
+      <c r="M9" s="35" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="N9" s="35" t="n">
+        <v>3599</v>
+      </c>
+      <c r="O9" s="36" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+      <c r="P9" s="36" t="n">
+        <v>6359</v>
+      </c>
+      <c r="Q9" s="37" t="inlineStr">
+        <is>
+          <t>52.1%</t>
+        </is>
+      </c>
+      <c r="R9" s="37" t="n">
+        <v>25835</v>
+      </c>
+      <c r="S9" s="9" t="inlineStr">
+        <is>
+          <t>47.9%</t>
+        </is>
+      </c>
+      <c r="T9" s="10" t="n">
+        <v>23757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="31" t="inlineStr">
+        <is>
+          <t>baydhaba</t>
+        </is>
+      </c>
+      <c r="F10" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H10" s="32" t="n">
+        <v>68576</v>
+      </c>
+      <c r="I10" s="33" t="inlineStr">
+        <is>
+          <t>44.8%</t>
+        </is>
+      </c>
+      <c r="J10" s="33" t="n">
+        <v>30708</v>
+      </c>
+      <c r="K10" s="34" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="L10" s="34" t="n">
+        <v>721</v>
+      </c>
+      <c r="M10" s="35" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="N10" s="35" t="n">
+        <v>3191</v>
+      </c>
+      <c r="O10" s="36" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
+      </c>
+      <c r="P10" s="36" t="n">
+        <v>11437</v>
+      </c>
+      <c r="Q10" s="37" t="inlineStr">
+        <is>
+          <t>32.8%</t>
+        </is>
+      </c>
+      <c r="R10" s="37" t="n">
+        <v>22518</v>
+      </c>
+      <c r="S10" s="9" t="inlineStr">
+        <is>
+          <t>67.2%</t>
+        </is>
+      </c>
+      <c r="T10" s="10" t="n">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="31" t="inlineStr">
+        <is>
+          <t>buur_hakaba</t>
+        </is>
+      </c>
+      <c r="F11" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H11" s="32" t="n">
+        <v>26871</v>
+      </c>
+      <c r="I11" s="33" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="J11" s="33" t="n">
+        <v>26871</v>
+      </c>
+      <c r="K11" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="T11" s="10" t="n">
+        <v>26871</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="31" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="F12" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H12" s="32" t="n">
+        <v>20314</v>
+      </c>
+      <c r="I12" s="33" t="inlineStr">
+        <is>
+          <t>49.7%</t>
+        </is>
+      </c>
+      <c r="J12" s="33" t="n">
+        <v>10095</v>
+      </c>
+      <c r="K12" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="35" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="N12" s="35" t="n">
+        <v>1017</v>
+      </c>
+      <c r="O12" s="36" t="inlineStr">
+        <is>
+          <t>23.7%</t>
+        </is>
+      </c>
+      <c r="P12" s="36" t="n">
+        <v>4819</v>
+      </c>
+      <c r="Q12" s="37" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
+      <c r="R12" s="37" t="n">
+        <v>4383</v>
+      </c>
+      <c r="S12" s="9" t="inlineStr">
+        <is>
+          <t>78.4%</t>
+        </is>
+      </c>
+      <c r="T12" s="10" t="n">
+        <v>15931</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="31" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="F13" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H13" s="32" t="n">
+        <v>59068</v>
+      </c>
+      <c r="I13" s="33" t="inlineStr">
+        <is>
+          <t>24.9%</t>
+        </is>
+      </c>
+      <c r="J13" s="33" t="n">
+        <v>14684</v>
+      </c>
+      <c r="K13" s="34" t="inlineStr">
+        <is>
+          <t>30.7%</t>
+        </is>
+      </c>
+      <c r="L13" s="34" t="n">
+        <v>18141</v>
+      </c>
+      <c r="M13" s="35" t="inlineStr">
+        <is>
+          <t>9.0%</t>
+        </is>
+      </c>
+      <c r="N13" s="35" t="n">
+        <v>5304</v>
+      </c>
+      <c r="O13" s="36" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="P13" s="36" t="n">
+        <v>587</v>
+      </c>
+      <c r="Q13" s="37" t="inlineStr">
+        <is>
+          <t>34.5%</t>
+        </is>
+      </c>
+      <c r="R13" s="37" t="n">
+        <v>20352</v>
+      </c>
+      <c r="S13" s="9" t="inlineStr">
+        <is>
+          <t>65.5%</t>
+        </is>
+      </c>
+      <c r="T13" s="10" t="n">
+        <v>38715</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="31" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="F14" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H14" s="32" t="n">
+        <v>22673</v>
+      </c>
+      <c r="I14" s="33" t="inlineStr">
+        <is>
+          <t>54.3%</t>
+        </is>
+      </c>
+      <c r="J14" s="33" t="n">
+        <v>12303</v>
+      </c>
+      <c r="K14" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="35" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="N14" s="35" t="n">
+        <v>425</v>
+      </c>
+      <c r="O14" s="36" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="P14" s="36" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="37" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
+      <c r="R14" s="37" t="n">
+        <v>9855</v>
+      </c>
+      <c r="S14" s="9" t="inlineStr">
+        <is>
+          <t>56.5%</t>
+        </is>
+      </c>
+      <c r="T14" s="10" t="n">
+        <v>12819</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="31" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="F15" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H15" s="32" t="n">
+        <v>26893</v>
+      </c>
+      <c r="I15" s="33" t="inlineStr">
+        <is>
+          <t>45.3%</t>
+        </is>
+      </c>
+      <c r="J15" s="33" t="n">
+        <v>12183</v>
+      </c>
+      <c r="K15" s="34" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="L15" s="34" t="n">
+        <v>218</v>
+      </c>
+      <c r="M15" s="35" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="N15" s="35" t="n">
+        <v>300</v>
+      </c>
+      <c r="O15" s="36" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="P15" s="36" t="n">
+        <v>552</v>
+      </c>
+      <c r="Q15" s="37" t="inlineStr">
+        <is>
+          <t>50.7%</t>
+        </is>
+      </c>
+      <c r="R15" s="37" t="n">
+        <v>13640</v>
+      </c>
+      <c r="S15" s="9" t="inlineStr">
+        <is>
+          <t>49.3%</t>
+        </is>
+      </c>
+      <c r="T15" s="10" t="n">
+        <v>13254</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="31" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="F16" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H16" s="32" t="n">
+        <v>23537</v>
+      </c>
+      <c r="I16" s="33" t="inlineStr">
+        <is>
+          <t>88.9%</t>
+        </is>
+      </c>
+      <c r="J16" s="33" t="n">
+        <v>20927</v>
+      </c>
+      <c r="K16" s="34" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="L16" s="34" t="n">
+        <v>1342</v>
+      </c>
+      <c r="M16" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="37" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="R16" s="37" t="n">
+        <v>1268</v>
+      </c>
+      <c r="S16" s="9" t="inlineStr">
+        <is>
+          <t>94.6%</t>
+        </is>
+      </c>
+      <c r="T16" s="10" t="n">
+        <v>22269</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="31" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="F17" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H17" s="32" t="n">
+        <v>134175</v>
+      </c>
+      <c r="I17" s="33" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="J17" s="33" t="n">
+        <v>34825</v>
+      </c>
+      <c r="K17" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="37" t="inlineStr">
         <is>
           <t>74.0%</t>
         </is>
       </c>
-      <c r="J6" s="33" t="n">
-        <v>19812</v>
-      </c>
-      <c r="K6" s="34" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="L6" s="34" t="n">
-        <v>477</v>
-      </c>
-      <c r="M6" s="35" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="N6" s="35" t="n">
-        <v>279</v>
-      </c>
-      <c r="O6" s="36" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="P6" s="36" t="n">
-        <v>1802</v>
-      </c>
-      <c r="Q6" s="37" t="inlineStr">
-        <is>
-          <t>16.5%</t>
-        </is>
-      </c>
-      <c r="R6" s="37" t="n">
-        <v>4419</v>
-      </c>
-      <c r="S6" s="38" t="inlineStr">
-        <is>
-          <t>83.5%</t>
-        </is>
-      </c>
-      <c r="T6" s="10" t="n">
-        <v>22371</v>
+      <c r="R17" s="37" t="n">
+        <v>99350</v>
+      </c>
+      <c r="S17" s="9" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="T17" s="10" t="n">
+        <v>34825</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="31" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="F18" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H18" s="32" t="n">
+        <v>24364</v>
+      </c>
+      <c r="I18" s="33" t="inlineStr">
+        <is>
+          <t>32.7%</t>
+        </is>
+      </c>
+      <c r="J18" s="33" t="n">
+        <v>7964</v>
+      </c>
+      <c r="K18" s="34" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="L18" s="34" t="n">
+        <v>1099</v>
+      </c>
+      <c r="M18" s="35" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="N18" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="O18" s="36" t="inlineStr">
+        <is>
+          <t>9.4%</t>
+        </is>
+      </c>
+      <c r="P18" s="36" t="n">
+        <v>2291</v>
+      </c>
+      <c r="Q18" s="37" t="inlineStr">
+        <is>
+          <t>52.6%</t>
+        </is>
+      </c>
+      <c r="R18" s="37" t="n">
+        <v>12811</v>
+      </c>
+      <c r="S18" s="9" t="inlineStr">
+        <is>
+          <t>47.4%</t>
+        </is>
+      </c>
+      <c r="T18" s="10" t="n">
+        <v>11553</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="31" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="F19" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H19" s="32" t="n">
+        <v>23383</v>
+      </c>
+      <c r="I19" s="33" t="inlineStr">
+        <is>
+          <t>93.1%</t>
+        </is>
+      </c>
+      <c r="J19" s="33" t="n">
+        <v>21764</v>
+      </c>
+      <c r="K19" s="34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P19" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="37" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+      <c r="R19" s="37" t="n">
+        <v>1619</v>
+      </c>
+      <c r="S19" s="9" t="inlineStr">
+        <is>
+          <t>93.1%</t>
+        </is>
+      </c>
+      <c r="T19" s="10" t="n">
+        <v>21764</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="31" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="F20" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H20" s="32" t="n">
+        <v>29539</v>
+      </c>
+      <c r="I20" s="33" t="inlineStr">
+        <is>
+          <t>20.9%</t>
+        </is>
+      </c>
+      <c r="J20" s="33" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K20" s="34" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="L20" s="34" t="n">
+        <v>265</v>
+      </c>
+      <c r="M20" s="35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="36" t="inlineStr">
+        <is>
+          <t>78.2%</t>
+        </is>
+      </c>
+      <c r="P20" s="36" t="n">
+        <v>23104</v>
+      </c>
+      <c r="Q20" s="37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="T20" s="10" t="n">
+        <v>29539</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="31" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="F21" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H21" s="32" t="n">
+        <v>32609</v>
+      </c>
+      <c r="I21" s="33" t="inlineStr">
+        <is>
+          <t>35.2%</t>
+        </is>
+      </c>
+      <c r="J21" s="33" t="n">
+        <v>11463</v>
+      </c>
+      <c r="K21" s="34" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="L21" s="34" t="n">
+        <v>399</v>
+      </c>
+      <c r="M21" s="35" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="N21" s="35" t="n">
+        <v>489</v>
+      </c>
+      <c r="O21" s="36" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="P21" s="36" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q21" s="37" t="inlineStr">
+        <is>
+          <t>61.6%</t>
+        </is>
+      </c>
+      <c r="R21" s="37" t="n">
+        <v>20097</v>
+      </c>
+      <c r="S21" s="9" t="inlineStr">
+        <is>
+          <t>38.4%</t>
+        </is>
+      </c>
+      <c r="T21" s="10" t="n">
+        <v>12512</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="38" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="F22" s="39" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" s="39" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H22" s="39" t="n">
+        <v>81207</v>
+      </c>
+      <c r="I22" s="40" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="J22" s="40" t="n">
+        <v>6300</v>
+      </c>
+      <c r="K22" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L22" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="42" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="N22" s="42" t="n">
+        <v>4927</v>
+      </c>
+      <c r="O22" s="43" t="inlineStr">
+        <is>
+          <t>29.5%</t>
+        </is>
+      </c>
+      <c r="P22" s="43" t="n">
+        <v>23967</v>
+      </c>
+      <c r="Q22" s="44" t="inlineStr">
+        <is>
+          <t>56.7%</t>
+        </is>
+      </c>
+      <c r="R22" s="44" t="n">
+        <v>46014</v>
+      </c>
+      <c r="S22" s="45" t="inlineStr">
+        <is>
+          <t>43.3%</t>
+        </is>
+      </c>
+      <c r="T22" s="10" t="n">
+        <v>35193</v>
       </c>
     </row>
   </sheetData>

--- a/output/Dimension_overview_OCHA_Somalia___SOM.xlsx
+++ b/output/Dimension_overview_OCHA_Somalia___SOM.xlsx
@@ -743,11 +743,11 @@
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1675457</v>
+        <v>1696163</v>
       </c>
       <c r="J6" s="6" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="K6" s="6" t="n">
-        <v>88651</v>
+        <v>88768</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
@@ -763,31 +763,31 @@
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>195741</v>
+        <v>197515</v>
       </c>
       <c r="N6" s="6" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O6" s="6" t="n">
-        <v>620791</v>
+        <v>592650</v>
       </c>
       <c r="P6" s="6" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q6" s="6" t="n">
-        <v>1528061</v>
+        <v>1533606</v>
       </c>
       <c r="R6" s="6" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S6" s="7" t="n">
-        <v>2580640</v>
+        <v>2575095</v>
       </c>
     </row>
     <row r="7">
@@ -810,11 +810,11 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>39.4%</t>
+          <t>40.1%</t>
         </is>
       </c>
       <c r="I7" s="8" t="n">
-        <v>1263088</v>
+        <v>1283171</v>
       </c>
       <c r="J7" s="8" t="inlineStr">
         <is>
@@ -822,39 +822,39 @@
         </is>
       </c>
       <c r="K7" s="8" t="n">
-        <v>62293</v>
+        <v>62039</v>
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="M7" s="8" t="n">
-        <v>168026</v>
+        <v>173580</v>
       </c>
       <c r="N7" s="8" t="inlineStr">
         <is>
-          <t>16.1%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="O7" s="8" t="n">
-        <v>516820</v>
+        <v>484435</v>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>1192786</v>
+        <v>1199788</v>
       </c>
       <c r="R7" s="9" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="S7" s="10" t="n">
-        <v>2010226</v>
+        <v>2003224</v>
       </c>
     </row>
     <row r="8">
@@ -877,51 +877,51 @@
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I8" s="8" t="n">
-        <v>81828</v>
+        <v>83721</v>
       </c>
       <c r="J8" s="8" t="inlineStr">
         <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>2850</v>
+      </c>
+      <c r="L8" s="8" t="inlineStr">
+        <is>
           <t>1.7%</t>
         </is>
       </c>
-      <c r="K8" s="8" t="n">
-        <v>2596</v>
-      </c>
-      <c r="L8" s="8" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
       <c r="M8" s="8" t="n">
-        <v>2287</v>
+        <v>2535</v>
       </c>
       <c r="N8" s="8" t="inlineStr">
         <is>
-          <t>15.8%</t>
+          <t>15.7%</t>
         </is>
       </c>
       <c r="O8" s="8" t="n">
-        <v>24228</v>
+        <v>24061</v>
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>27.8%</t>
+          <t>26.3%</t>
         </is>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>42636</v>
+        <v>40407</v>
       </c>
       <c r="R8" s="9" t="inlineStr">
         <is>
-          <t>72.2%</t>
+          <t>73.7%</t>
         </is>
       </c>
       <c r="S8" s="10" t="n">
-        <v>110938</v>
+        <v>113167</v>
       </c>
     </row>
     <row r="9">
@@ -944,11 +944,11 @@
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>43.8%</t>
         </is>
       </c>
       <c r="I9" s="8" t="n">
-        <v>330541</v>
+        <v>329272</v>
       </c>
       <c r="J9" s="8" t="inlineStr">
         <is>
@@ -956,39 +956,39 @@
         </is>
       </c>
       <c r="K9" s="8" t="n">
-        <v>23762</v>
+        <v>23878</v>
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="M9" s="8" t="n">
-        <v>25428</v>
+        <v>21401</v>
       </c>
       <c r="N9" s="8" t="inlineStr">
         <is>
-          <t>10.6%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="O9" s="8" t="n">
-        <v>79744</v>
+        <v>84154</v>
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>292639</v>
+        <v>293410</v>
       </c>
       <c r="R9" s="9" t="inlineStr">
         <is>
-          <t>61.1%</t>
+          <t>61.0%</t>
         </is>
       </c>
       <c r="S9" s="10" t="n">
-        <v>459476</v>
+        <v>458704</v>
       </c>
     </row>
     <row r="10">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="H10" s="11" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>40.9%</t>
         </is>
       </c>
       <c r="I10" s="11" t="n">
-        <v>766485</v>
+        <v>774623</v>
       </c>
       <c r="J10" s="11" t="inlineStr">
         <is>
@@ -1023,39 +1023,39 @@
         </is>
       </c>
       <c r="K10" s="11" t="n">
-        <v>39344</v>
+        <v>39340</v>
       </c>
       <c r="L10" s="11" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="M10" s="11" t="n">
-        <v>89120</v>
+        <v>90919</v>
       </c>
       <c r="N10" s="11" t="inlineStr">
         <is>
-          <t>16.2%</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="O10" s="11" t="n">
-        <v>305997</v>
+        <v>294181</v>
       </c>
       <c r="P10" s="11" t="inlineStr">
         <is>
-          <t>36.6%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>691975</v>
+        <v>693858</v>
       </c>
       <c r="R10" s="12" t="inlineStr">
         <is>
-          <t>63.4%</t>
+          <t>63.3%</t>
         </is>
       </c>
       <c r="S10" s="13" t="n">
-        <v>1200947</v>
+        <v>1199063</v>
       </c>
     </row>
     <row r="11">
@@ -1078,11 +1078,11 @@
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>41.0%</t>
+          <t>41.6%</t>
         </is>
       </c>
       <c r="I11" s="11" t="n">
-        <v>908972</v>
+        <v>921540</v>
       </c>
       <c r="J11" s="11" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="K11" s="11" t="n">
-        <v>49307</v>
+        <v>49427</v>
       </c>
       <c r="L11" s="11" t="inlineStr">
         <is>
@@ -1098,31 +1098,31 @@
         </is>
       </c>
       <c r="M11" s="11" t="n">
-        <v>106621</v>
+        <v>106597</v>
       </c>
       <c r="N11" s="11" t="inlineStr">
         <is>
-          <t>14.2%</t>
+          <t>13.5%</t>
         </is>
       </c>
       <c r="O11" s="11" t="n">
-        <v>314794</v>
+        <v>298468</v>
       </c>
       <c r="P11" s="11" t="inlineStr">
         <is>
-          <t>37.7%</t>
+          <t>37.9%</t>
         </is>
       </c>
       <c r="Q11" s="11" t="n">
-        <v>836086</v>
+        <v>839748</v>
       </c>
       <c r="R11" s="12" t="inlineStr">
         <is>
-          <t>62.3%</t>
+          <t>62.1%</t>
         </is>
       </c>
       <c r="S11" s="13" t="n">
-        <v>1379694</v>
+        <v>1376032</v>
       </c>
     </row>
     <row r="12">
@@ -1145,11 +1145,11 @@
       </c>
       <c r="H12" s="14" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I12" s="14" t="n">
-        <v>310051</v>
+        <v>314216</v>
       </c>
       <c r="J12" s="14" t="inlineStr">
         <is>
@@ -1157,39 +1157,39 @@
         </is>
       </c>
       <c r="K12" s="14" t="n">
-        <v>19944</v>
+        <v>19464</v>
       </c>
       <c r="L12" s="14" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="M12" s="14" t="n">
-        <v>29071</v>
+        <v>30466</v>
       </c>
       <c r="N12" s="14" t="inlineStr">
         <is>
-          <t>10.5%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="O12" s="14" t="n">
-        <v>80335</v>
+        <v>76942</v>
       </c>
       <c r="P12" s="14" t="inlineStr">
         <is>
-          <t>42.4%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>323134</v>
+        <v>321447</v>
       </c>
       <c r="R12" s="15" t="inlineStr">
         <is>
-          <t>57.6%</t>
+          <t>57.8%</t>
         </is>
       </c>
       <c r="S12" s="16" t="n">
-        <v>439401</v>
+        <v>441088</v>
       </c>
     </row>
     <row r="13">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="H13" s="17" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I13" s="17" t="n">
-        <v>558486</v>
+        <v>565388</v>
       </c>
       <c r="J13" s="17" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="K13" s="17" t="n">
-        <v>29550</v>
+        <v>29589</v>
       </c>
       <c r="L13" s="17" t="inlineStr">
         <is>
@@ -1232,31 +1232,31 @@
         </is>
       </c>
       <c r="M13" s="17" t="n">
-        <v>65247</v>
+        <v>65838</v>
       </c>
       <c r="N13" s="17" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O13" s="17" t="n">
-        <v>206930</v>
+        <v>197550</v>
       </c>
       <c r="P13" s="17" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q13" s="17" t="n">
-        <v>509354</v>
+        <v>511202</v>
       </c>
       <c r="R13" s="18" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S13" s="19" t="n">
-        <v>860213</v>
+        <v>858365</v>
       </c>
     </row>
     <row r="14">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="H14" s="17" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I14" s="17" t="n">
-        <v>698107</v>
+        <v>706735</v>
       </c>
       <c r="J14" s="17" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="K14" s="17" t="n">
-        <v>36938</v>
+        <v>36986</v>
       </c>
       <c r="L14" s="17" t="inlineStr">
         <is>
@@ -1299,31 +1299,31 @@
         </is>
       </c>
       <c r="M14" s="17" t="n">
-        <v>81559</v>
+        <v>82298</v>
       </c>
       <c r="N14" s="17" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O14" s="17" t="n">
-        <v>258663</v>
+        <v>246937</v>
       </c>
       <c r="P14" s="17" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q14" s="17" t="n">
-        <v>636692</v>
+        <v>639002</v>
       </c>
       <c r="R14" s="18" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S14" s="19" t="n">
-        <v>1075267</v>
+        <v>1072956</v>
       </c>
     </row>
     <row r="15">
@@ -1346,11 +1346,11 @@
       </c>
       <c r="H15" s="17" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I15" s="17" t="n">
-        <v>418864</v>
+        <v>424041</v>
       </c>
       <c r="J15" s="17" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="K15" s="17" t="n">
-        <v>22163</v>
+        <v>22192</v>
       </c>
       <c r="L15" s="17" t="inlineStr">
         <is>
@@ -1366,31 +1366,31 @@
         </is>
       </c>
       <c r="M15" s="17" t="n">
-        <v>48935</v>
+        <v>49379</v>
       </c>
       <c r="N15" s="17" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O15" s="17" t="n">
-        <v>155198</v>
+        <v>148162</v>
       </c>
       <c r="P15" s="17" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q15" s="17" t="n">
-        <v>382015</v>
+        <v>383401</v>
       </c>
       <c r="R15" s="18" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S15" s="19" t="n">
-        <v>645160</v>
+        <v>643774</v>
       </c>
     </row>
     <row r="16">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I16" s="20" t="n">
-        <v>167546</v>
+        <v>169616</v>
       </c>
       <c r="J16" s="20" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="K16" s="20" t="n">
-        <v>8865</v>
+        <v>8877</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="M16" s="20" t="n">
-        <v>19574</v>
+        <v>19752</v>
       </c>
       <c r="N16" s="20" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O16" s="20" t="n">
-        <v>62079</v>
+        <v>59265</v>
       </c>
       <c r="P16" s="20" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q16" s="20" t="n">
-        <v>152806</v>
+        <v>153361</v>
       </c>
       <c r="R16" s="21" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S16" s="22" t="n">
-        <v>258064</v>
+        <v>257510</v>
       </c>
     </row>
   </sheetData>
@@ -1635,35 +1635,35 @@
       </c>
       <c r="M6" s="35" t="inlineStr">
         <is>
-          <t>22.1%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="N6" s="35" t="n">
-        <v>53665</v>
+        <v>63430</v>
       </c>
       <c r="O6" s="36" t="inlineStr">
         <is>
-          <t>41.9%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="P6" s="36" t="n">
-        <v>101746</v>
+        <v>90402</v>
       </c>
       <c r="Q6" s="37" t="inlineStr">
         <is>
-          <t>36.1%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="R6" s="37" t="n">
-        <v>87688</v>
+        <v>89268</v>
       </c>
       <c r="S6" s="9" t="inlineStr">
         <is>
-          <t>63.9%</t>
+          <t>63.3%</t>
         </is>
       </c>
       <c r="T6" s="10" t="n">
-        <v>155412</v>
+        <v>153832</v>
       </c>
     </row>
     <row r="7">
@@ -1689,11 +1689,11 @@
       </c>
       <c r="I7" s="33" t="inlineStr">
         <is>
-          <t>59.4%</t>
+          <t>62.1%</t>
         </is>
       </c>
       <c r="J7" s="33" t="n">
-        <v>68701</v>
+        <v>71847</v>
       </c>
       <c r="K7" s="34" t="inlineStr">
         <is>
@@ -1713,27 +1713,27 @@
       </c>
       <c r="O7" s="36" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="P7" s="36" t="n">
-        <v>6964</v>
+        <v>6236</v>
       </c>
       <c r="Q7" s="37" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="R7" s="37" t="n">
-        <v>40061</v>
+        <v>37643</v>
       </c>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>67.5%</t>
         </is>
       </c>
       <c r="T7" s="10" t="n">
-        <v>75665</v>
+        <v>78083</v>
       </c>
     </row>
     <row r="8">
@@ -1759,19 +1759,19 @@
       </c>
       <c r="I8" s="33" t="inlineStr">
         <is>
-          <t>49.0%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="J8" s="33" t="n">
-        <v>45945</v>
+        <v>43580</v>
       </c>
       <c r="K8" s="34" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="L8" s="34" t="n">
-        <v>972</v>
+        <v>1237</v>
       </c>
       <c r="M8" s="35" t="inlineStr">
         <is>
@@ -1783,27 +1783,27 @@
       </c>
       <c r="O8" s="36" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>11.3%</t>
         </is>
       </c>
       <c r="P8" s="36" t="n">
-        <v>12917</v>
+        <v>10639</v>
       </c>
       <c r="Q8" s="37" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>40.9%</t>
         </is>
       </c>
       <c r="R8" s="37" t="n">
-        <v>33929</v>
+        <v>38306</v>
       </c>
       <c r="S8" s="9" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>59.1%</t>
         </is>
       </c>
       <c r="T8" s="10" t="n">
-        <v>59834</v>
+        <v>55457</v>
       </c>
     </row>
     <row r="9">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="I9" s="33" t="inlineStr">
         <is>
-          <t>48.8%</t>
+          <t>57.4%</t>
         </is>
       </c>
       <c r="J9" s="33" t="n">
-        <v>84643</v>
+        <v>99583</v>
       </c>
       <c r="K9" s="34" t="inlineStr">
         <is>
@@ -1845,35 +1845,35 @@
       </c>
       <c r="M9" s="35" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="N9" s="35" t="n">
-        <v>32054</v>
+        <v>24841</v>
       </c>
       <c r="O9" s="36" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="P9" s="36" t="n">
-        <v>32054</v>
+        <v>24841</v>
       </c>
       <c r="Q9" s="37" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>14.0%</t>
         </is>
       </c>
       <c r="R9" s="37" t="n">
-        <v>24824</v>
+        <v>24308</v>
       </c>
       <c r="S9" s="9" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>86.0%</t>
         </is>
       </c>
       <c r="T9" s="10" t="n">
-        <v>148750</v>
+        <v>149265</v>
       </c>
     </row>
     <row r="10">
@@ -1899,35 +1899,35 @@
       </c>
       <c r="I10" s="33" t="inlineStr">
         <is>
-          <t>16.9%</t>
+          <t>19.7%</t>
         </is>
       </c>
       <c r="J10" s="33" t="n">
-        <v>40505</v>
+        <v>47334</v>
       </c>
       <c r="K10" s="34" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="L10" s="34" t="n">
-        <v>3827</v>
+        <v>1907</v>
       </c>
       <c r="M10" s="35" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="N10" s="35" t="n">
-        <v>14855</v>
+        <v>12157</v>
       </c>
       <c r="O10" s="36" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="P10" s="36" t="n">
-        <v>16764</v>
+        <v>14412</v>
       </c>
       <c r="Q10" s="37" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="R10" s="37" t="n">
-        <v>164063</v>
+        <v>164204</v>
       </c>
       <c r="S10" s="9" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="T10" s="10" t="n">
-        <v>75951</v>
+        <v>75810</v>
       </c>
     </row>
     <row r="11">
@@ -1969,27 +1969,27 @@
       </c>
       <c r="I11" s="33" t="inlineStr">
         <is>
-          <t>26.9%</t>
+          <t>30.4%</t>
         </is>
       </c>
       <c r="J11" s="33" t="n">
-        <v>22017</v>
+        <v>24859</v>
       </c>
       <c r="K11" s="34" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="L11" s="34" t="n">
-        <v>3547</v>
+        <v>2937</v>
       </c>
       <c r="M11" s="35" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="N11" s="35" t="n">
-        <v>4042</v>
+        <v>4322</v>
       </c>
       <c r="O11" s="36" t="inlineStr">
         <is>
@@ -2001,19 +2001,19 @@
       </c>
       <c r="Q11" s="37" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="R11" s="37" t="n">
-        <v>52247</v>
+        <v>49735</v>
       </c>
       <c r="S11" s="9" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="T11" s="10" t="n">
-        <v>29606</v>
+        <v>32117</v>
       </c>
     </row>
     <row r="12">
@@ -2039,27 +2039,27 @@
       </c>
       <c r="I12" s="33" t="inlineStr">
         <is>
-          <t>91.2%</t>
+          <t>92.5%</t>
         </is>
       </c>
       <c r="J12" s="33" t="n">
-        <v>85742</v>
+        <v>86963</v>
       </c>
       <c r="K12" s="34" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="L12" s="34" t="n">
-        <v>4138</v>
+        <v>3910</v>
       </c>
       <c r="M12" s="35" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="N12" s="35" t="n">
-        <v>1390</v>
+        <v>1059</v>
       </c>
       <c r="O12" s="36" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
       </c>
       <c r="Q12" s="37" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="R12" s="37" t="n">
-        <v>2780</v>
+        <v>2118</v>
       </c>
       <c r="S12" s="9" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>97.7%</t>
         </is>
       </c>
       <c r="T12" s="10" t="n">
-        <v>91270</v>
+        <v>91932</v>
       </c>
     </row>
     <row r="13">
@@ -2109,11 +2109,11 @@
       </c>
       <c r="I13" s="33" t="inlineStr">
         <is>
-          <t>56.8%</t>
+          <t>56.0%</t>
         </is>
       </c>
       <c r="J13" s="33" t="n">
-        <v>40382</v>
+        <v>39816</v>
       </c>
       <c r="K13" s="34" t="inlineStr">
         <is>
@@ -2125,35 +2125,35 @@
       </c>
       <c r="M13" s="35" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="N13" s="35" t="n">
-        <v>2991</v>
+        <v>3345</v>
       </c>
       <c r="O13" s="36" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="P13" s="36" t="n">
-        <v>4690</v>
+        <v>5742</v>
       </c>
       <c r="Q13" s="37" t="inlineStr">
         <is>
-          <t>32.4%</t>
+          <t>31.2%</t>
         </is>
       </c>
       <c r="R13" s="37" t="n">
-        <v>23037</v>
+        <v>22197</v>
       </c>
       <c r="S13" s="9" t="inlineStr">
         <is>
-          <t>67.6%</t>
+          <t>68.8%</t>
         </is>
       </c>
       <c r="T13" s="10" t="n">
-        <v>48063</v>
+        <v>48903</v>
       </c>
     </row>
     <row r="14">
@@ -2179,27 +2179,27 @@
       </c>
       <c r="I14" s="33" t="inlineStr">
         <is>
-          <t>41.0%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="J14" s="33" t="n">
-        <v>84743</v>
+        <v>80462</v>
       </c>
       <c r="K14" s="34" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>10.9%</t>
         </is>
       </c>
       <c r="L14" s="34" t="n">
-        <v>20528</v>
+        <v>22616</v>
       </c>
       <c r="M14" s="35" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="N14" s="35" t="n">
-        <v>5465</v>
+        <v>9487</v>
       </c>
       <c r="O14" s="36" t="inlineStr">
         <is>
@@ -2207,23 +2207,23 @@
         </is>
       </c>
       <c r="P14" s="36" t="n">
-        <v>10175</v>
+        <v>10055</v>
       </c>
       <c r="Q14" s="37" t="inlineStr">
         <is>
-          <t>41.5%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="R14" s="37" t="n">
-        <v>85825</v>
+        <v>84116</v>
       </c>
       <c r="S14" s="9" t="inlineStr">
         <is>
-          <t>58.5%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="T14" s="10" t="n">
-        <v>120911</v>
+        <v>122621</v>
       </c>
     </row>
     <row r="15">
@@ -2249,51 +2249,51 @@
       </c>
       <c r="I15" s="33" t="inlineStr">
         <is>
-          <t>43.0%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="J15" s="33" t="n">
-        <v>34116</v>
+        <v>32175</v>
       </c>
       <c r="K15" s="34" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="L15" s="34" t="n">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="M15" s="35" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="N15" s="35" t="n">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="O15" s="36" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="P15" s="36" t="n">
-        <v>2528</v>
+        <v>2144</v>
       </c>
       <c r="Q15" s="37" t="inlineStr">
         <is>
-          <t>53.2%</t>
+          <t>55.9%</t>
         </is>
       </c>
       <c r="R15" s="37" t="n">
-        <v>42247</v>
+        <v>44376</v>
       </c>
       <c r="S15" s="9" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>44.1%</t>
         </is>
       </c>
       <c r="T15" s="10" t="n">
-        <v>37110</v>
+        <v>34981</v>
       </c>
     </row>
     <row r="16">
@@ -2319,19 +2319,19 @@
       </c>
       <c r="I16" s="33" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>20.5%</t>
         </is>
       </c>
       <c r="J16" s="33" t="n">
-        <v>18837</v>
+        <v>19254</v>
       </c>
       <c r="K16" s="34" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="L16" s="34" t="n">
-        <v>819</v>
+        <v>623</v>
       </c>
       <c r="M16" s="35" t="inlineStr">
         <is>
@@ -2343,27 +2343,27 @@
       </c>
       <c r="O16" s="36" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="P16" s="36" t="n">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="Q16" s="37" t="inlineStr">
         <is>
-          <t>78.5%</t>
+          <t>78.2%</t>
         </is>
       </c>
       <c r="R16" s="37" t="n">
-        <v>73884</v>
+        <v>73618</v>
       </c>
       <c r="S16" s="9" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>21.8%</t>
         </is>
       </c>
       <c r="T16" s="10" t="n">
-        <v>20243</v>
+        <v>20509</v>
       </c>
     </row>
     <row r="17">
@@ -2389,19 +2389,19 @@
       </c>
       <c r="I17" s="33" t="inlineStr">
         <is>
-          <t>90.1%</t>
+          <t>86.8%</t>
         </is>
       </c>
       <c r="J17" s="33" t="n">
-        <v>74257</v>
+        <v>71542</v>
       </c>
       <c r="K17" s="34" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="L17" s="34" t="n">
-        <v>2538</v>
+        <v>2496</v>
       </c>
       <c r="M17" s="35" t="inlineStr">
         <is>
@@ -2421,19 +2421,19 @@
       </c>
       <c r="Q17" s="37" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="R17" s="37" t="n">
-        <v>5585</v>
+        <v>8343</v>
       </c>
       <c r="S17" s="9" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>89.9%</t>
         </is>
       </c>
       <c r="T17" s="10" t="n">
-        <v>76795</v>
+        <v>74037</v>
       </c>
     </row>
     <row r="18">
@@ -2459,27 +2459,27 @@
       </c>
       <c r="I18" s="33" t="inlineStr">
         <is>
-          <t>29.8%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J18" s="33" t="n">
-        <v>22413</v>
+        <v>22631</v>
       </c>
       <c r="K18" s="34" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="L18" s="34" t="n">
-        <v>3328</v>
+        <v>3100</v>
       </c>
       <c r="M18" s="35" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="N18" s="35" t="n">
-        <v>1535</v>
+        <v>1638</v>
       </c>
       <c r="O18" s="36" t="inlineStr">
         <is>
@@ -2491,19 +2491,19 @@
       </c>
       <c r="Q18" s="37" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>63.7%</t>
         </is>
       </c>
       <c r="R18" s="37" t="n">
-        <v>48040</v>
+        <v>47947</v>
       </c>
       <c r="S18" s="9" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>36.3%</t>
         </is>
       </c>
       <c r="T18" s="10" t="n">
-        <v>27276</v>
+        <v>27369</v>
       </c>
     </row>
     <row r="19">
@@ -2529,27 +2529,27 @@
       </c>
       <c r="I19" s="33" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="J19" s="33" t="n">
-        <v>20086</v>
+        <v>20362</v>
       </c>
       <c r="K19" s="34" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="L19" s="34" t="n">
-        <v>2946</v>
+        <v>2541</v>
       </c>
       <c r="M19" s="35" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="N19" s="35" t="n">
-        <v>7389</v>
+        <v>6716</v>
       </c>
       <c r="O19" s="36" t="inlineStr">
         <is>
@@ -2561,19 +2561,19 @@
       </c>
       <c r="Q19" s="37" t="inlineStr">
         <is>
-          <t>38.3%</t>
+          <t>39.9%</t>
         </is>
       </c>
       <c r="R19" s="37" t="n">
-        <v>18863</v>
+        <v>19666</v>
       </c>
       <c r="S19" s="9" t="inlineStr">
         <is>
-          <t>61.7%</t>
+          <t>60.1%</t>
         </is>
       </c>
       <c r="T19" s="10" t="n">
-        <v>30421</v>
+        <v>29619</v>
       </c>
     </row>
     <row r="20">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="I20" s="33" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="J20" s="33" t="n">
-        <v>254687</v>
+        <v>258196</v>
       </c>
       <c r="K20" s="34" t="inlineStr">
         <is>
@@ -2611,39 +2611,39 @@
         </is>
       </c>
       <c r="L20" s="34" t="n">
-        <v>5560</v>
+        <v>5673</v>
       </c>
       <c r="M20" s="35" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="N20" s="35" t="n">
-        <v>20542</v>
+        <v>23661</v>
       </c>
       <c r="O20" s="36" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="P20" s="36" t="n">
-        <v>2342</v>
+        <v>1715</v>
       </c>
       <c r="Q20" s="37" t="inlineStr">
         <is>
-          <t>39.7%</t>
+          <t>38.4%</t>
         </is>
       </c>
       <c r="R20" s="37" t="n">
-        <v>186481</v>
+        <v>180368</v>
       </c>
       <c r="S20" s="9" t="inlineStr">
         <is>
-          <t>60.3%</t>
+          <t>61.6%</t>
         </is>
       </c>
       <c r="T20" s="10" t="n">
-        <v>283132</v>
+        <v>289245</v>
       </c>
     </row>
     <row r="21">
@@ -2669,19 +2669,19 @@
       </c>
       <c r="I21" s="33" t="inlineStr">
         <is>
-          <t>50.4%</t>
+          <t>53.0%</t>
         </is>
       </c>
       <c r="J21" s="33" t="n">
-        <v>39276</v>
+        <v>41304</v>
       </c>
       <c r="K21" s="34" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>7.8%</t>
         </is>
       </c>
       <c r="L21" s="34" t="n">
-        <v>5685</v>
+        <v>6084</v>
       </c>
       <c r="M21" s="35" t="inlineStr">
         <is>
@@ -2701,19 +2701,19 @@
       </c>
       <c r="Q21" s="37" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="R21" s="37" t="n">
-        <v>33009</v>
+        <v>30581</v>
       </c>
       <c r="S21" s="9" t="inlineStr">
         <is>
-          <t>57.7%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="T21" s="10" t="n">
-        <v>44960</v>
+        <v>47388</v>
       </c>
     </row>
     <row r="22">
@@ -2739,27 +2739,27 @@
       </c>
       <c r="I22" s="33" t="inlineStr">
         <is>
-          <t>57.9%</t>
+          <t>51.3%</t>
         </is>
       </c>
       <c r="J22" s="33" t="n">
-        <v>49414</v>
+        <v>43754</v>
       </c>
       <c r="K22" s="34" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="L22" s="34" t="n">
-        <v>1691</v>
+        <v>2065</v>
       </c>
       <c r="M22" s="35" t="inlineStr">
         <is>
-          <t>14.9%</t>
+          <t>13.1%</t>
         </is>
       </c>
       <c r="N22" s="35" t="n">
-        <v>12675</v>
+        <v>11210</v>
       </c>
       <c r="O22" s="36" t="inlineStr">
         <is>
@@ -2771,19 +2771,19 @@
       </c>
       <c r="Q22" s="37" t="inlineStr">
         <is>
-          <t>25.2%</t>
+          <t>33.1%</t>
         </is>
       </c>
       <c r="R22" s="37" t="n">
-        <v>21495</v>
+        <v>28247</v>
       </c>
       <c r="S22" s="9" t="inlineStr">
         <is>
-          <t>74.8%</t>
+          <t>66.9%</t>
         </is>
       </c>
       <c r="T22" s="10" t="n">
-        <v>63780</v>
+        <v>57028</v>
       </c>
     </row>
     <row r="23">
@@ -2809,11 +2809,11 @@
       </c>
       <c r="I23" s="33" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="J23" s="33" t="n">
-        <v>34791</v>
+        <v>29900</v>
       </c>
       <c r="K23" s="34" t="inlineStr">
         <is>
@@ -2841,19 +2841,19 @@
       </c>
       <c r="Q23" s="37" t="inlineStr">
         <is>
-          <t>57.5%</t>
+          <t>63.5%</t>
         </is>
       </c>
       <c r="R23" s="37" t="n">
-        <v>47049</v>
+        <v>51940</v>
       </c>
       <c r="S23" s="9" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="T23" s="10" t="n">
-        <v>34791</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="24">
@@ -2879,27 +2879,27 @@
       </c>
       <c r="I24" s="33" t="inlineStr">
         <is>
-          <t>30.1%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="J24" s="33" t="n">
-        <v>35093</v>
+        <v>32096</v>
       </c>
       <c r="K24" s="34" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="L24" s="34" t="n">
-        <v>6549</v>
+        <v>6591</v>
       </c>
       <c r="M24" s="35" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="N24" s="35" t="n">
-        <v>4776</v>
+        <v>5589</v>
       </c>
       <c r="O24" s="36" t="inlineStr">
         <is>
@@ -2907,23 +2907,23 @@
         </is>
       </c>
       <c r="P24" s="36" t="n">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="37" t="inlineStr">
         <is>
-          <t>59.9%</t>
+          <t>61.7%</t>
         </is>
       </c>
       <c r="R24" s="37" t="n">
-        <v>69845</v>
+        <v>71926</v>
       </c>
       <c r="S24" s="9" t="inlineStr">
         <is>
-          <t>40.1%</t>
+          <t>38.3%</t>
         </is>
       </c>
       <c r="T24" s="10" t="n">
-        <v>46765</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="25">
@@ -2949,11 +2949,11 @@
       </c>
       <c r="I25" s="33" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>66.3%</t>
         </is>
       </c>
       <c r="J25" s="33" t="n">
-        <v>56024</v>
+        <v>68497</v>
       </c>
       <c r="K25" s="34" t="inlineStr">
         <is>
@@ -2973,27 +2973,27 @@
       </c>
       <c r="O25" s="36" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="P25" s="36" t="n">
-        <v>35711</v>
+        <v>26940</v>
       </c>
       <c r="Q25" s="37" t="inlineStr">
         <is>
-          <t>11.3%</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="R25" s="37" t="n">
-        <v>11652</v>
+        <v>7950</v>
       </c>
       <c r="S25" s="9" t="inlineStr">
         <is>
-          <t>88.7%</t>
+          <t>92.3%</t>
         </is>
       </c>
       <c r="T25" s="10" t="n">
-        <v>91735</v>
+        <v>95437</v>
       </c>
     </row>
     <row r="26">
@@ -3019,11 +3019,11 @@
       </c>
       <c r="I26" s="33" t="inlineStr">
         <is>
-          <t>74.5%</t>
+          <t>74.0%</t>
         </is>
       </c>
       <c r="J26" s="33" t="n">
-        <v>52690</v>
+        <v>52376</v>
       </c>
       <c r="K26" s="34" t="inlineStr">
         <is>
@@ -3039,31 +3039,31 @@
         </is>
       </c>
       <c r="N26" s="35" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="O26" s="36" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="P26" s="36" t="n">
-        <v>992</v>
+        <v>1375</v>
       </c>
       <c r="Q26" s="37" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="R26" s="37" t="n">
-        <v>16422</v>
+        <v>16351</v>
       </c>
       <c r="S26" s="9" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="T26" s="10" t="n">
-        <v>54338</v>
+        <v>54409</v>
       </c>
     </row>
     <row r="27">
@@ -3089,11 +3089,11 @@
       </c>
       <c r="I27" s="33" t="inlineStr">
         <is>
-          <t>50.1%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="J27" s="33" t="n">
-        <v>57150</v>
+        <v>57771</v>
       </c>
       <c r="K27" s="34" t="inlineStr">
         <is>
@@ -3121,19 +3121,19 @@
       </c>
       <c r="Q27" s="37" t="inlineStr">
         <is>
-          <t>49.9%</t>
+          <t>49.4%</t>
         </is>
       </c>
       <c r="R27" s="37" t="n">
-        <v>56982</v>
+        <v>56361</v>
       </c>
       <c r="S27" s="9" t="inlineStr">
         <is>
-          <t>50.1%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="T27" s="10" t="n">
-        <v>57150</v>
+        <v>57771</v>
       </c>
     </row>
     <row r="28">
@@ -3229,11 +3229,11 @@
       </c>
       <c r="I29" s="40" t="inlineStr">
         <is>
-          <t>42.1%</t>
+          <t>39.3%</t>
         </is>
       </c>
       <c r="J29" s="40" t="n">
-        <v>41576</v>
+        <v>38869</v>
       </c>
       <c r="K29" s="41" t="inlineStr">
         <is>
@@ -3245,35 +3245,35 @@
       </c>
       <c r="M29" s="42" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="N29" s="42" t="n">
-        <v>5691</v>
+        <v>5062</v>
       </c>
       <c r="O29" s="43" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="P29" s="43" t="n">
-        <v>4777</v>
+        <v>4670</v>
       </c>
       <c r="Q29" s="44" t="inlineStr">
         <is>
-          <t>47.3%</t>
+          <t>50.8%</t>
         </is>
       </c>
       <c r="R29" s="44" t="n">
-        <v>46777</v>
+        <v>50220</v>
       </c>
       <c r="S29" s="45" t="inlineStr">
         <is>
-          <t>52.7%</t>
+          <t>49.2%</t>
         </is>
       </c>
       <c r="T29" s="10" t="n">
-        <v>52044</v>
+        <v>48601</v>
       </c>
     </row>
   </sheetData>
@@ -3435,11 +3435,11 @@
       </c>
       <c r="I6" s="33" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>68.7%</t>
         </is>
       </c>
       <c r="J6" s="33" t="n">
-        <v>22341</v>
+        <v>23874</v>
       </c>
       <c r="K6" s="34" t="inlineStr">
         <is>
@@ -3459,27 +3459,27 @@
       </c>
       <c r="O6" s="36" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="P6" s="36" t="n">
-        <v>8052</v>
+        <v>8413</v>
       </c>
       <c r="Q6" s="37" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="R6" s="37" t="n">
-        <v>4335</v>
+        <v>2441</v>
       </c>
       <c r="S6" s="9" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>93.0%</t>
         </is>
       </c>
       <c r="T6" s="10" t="n">
-        <v>30393</v>
+        <v>32287</v>
       </c>
     </row>
     <row r="7">
@@ -3505,19 +3505,19 @@
       </c>
       <c r="I7" s="33" t="inlineStr">
         <is>
-          <t>55.3%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="J7" s="33" t="n">
-        <v>9149</v>
+        <v>9093</v>
       </c>
       <c r="K7" s="34" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="L7" s="34" t="n">
-        <v>707</v>
+        <v>813</v>
       </c>
       <c r="M7" s="35" t="inlineStr">
         <is>
@@ -3529,27 +3529,27 @@
       </c>
       <c r="O7" s="36" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="P7" s="36" t="n">
-        <v>654</v>
+        <v>543</v>
       </c>
       <c r="Q7" s="37" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="R7" s="37" t="n">
-        <v>6022</v>
+        <v>6083</v>
       </c>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>63.2%</t>
         </is>
       </c>
       <c r="T7" s="10" t="n">
-        <v>10510</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="8">
@@ -3575,11 +3575,11 @@
       </c>
       <c r="I8" s="33" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>74.5%</t>
         </is>
       </c>
       <c r="J8" s="33" t="n">
-        <v>10064</v>
+        <v>9978</v>
       </c>
       <c r="K8" s="34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="L8" s="34" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="35" t="inlineStr">
         <is>
@@ -3595,31 +3595,31 @@
         </is>
       </c>
       <c r="N8" s="35" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O8" s="36" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="P8" s="36" t="n">
-        <v>1268</v>
+        <v>1155</v>
       </c>
       <c r="Q8" s="37" t="inlineStr">
         <is>
-          <t>14.2%</t>
+          <t>15.7%</t>
         </is>
       </c>
       <c r="R8" s="37" t="n">
-        <v>1903</v>
+        <v>2108</v>
       </c>
       <c r="S8" s="9" t="inlineStr">
         <is>
-          <t>85.8%</t>
+          <t>84.3%</t>
         </is>
       </c>
       <c r="T8" s="10" t="n">
-        <v>11491</v>
+        <v>11286</v>
       </c>
     </row>
     <row r="9">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="I9" s="33" t="inlineStr">
         <is>
-          <t>68.4%</t>
+          <t>70.9%</t>
         </is>
       </c>
       <c r="J9" s="33" t="n">
-        <v>16958</v>
+        <v>17572</v>
       </c>
       <c r="K9" s="34" t="inlineStr">
         <is>
@@ -3661,19 +3661,19 @@
       </c>
       <c r="M9" s="35" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="N9" s="35" t="n">
-        <v>1732</v>
+        <v>1474</v>
       </c>
       <c r="O9" s="36" t="inlineStr">
         <is>
-          <t>24.6%</t>
+          <t>23.2%</t>
         </is>
       </c>
       <c r="P9" s="36" t="n">
-        <v>6106</v>
+        <v>5750</v>
       </c>
       <c r="Q9" s="37" t="inlineStr">
         <is>
@@ -3715,11 +3715,11 @@
       </c>
       <c r="I10" s="33" t="inlineStr">
         <is>
-          <t>65.8%</t>
+          <t>55.3%</t>
         </is>
       </c>
       <c r="J10" s="33" t="n">
-        <v>7459</v>
+        <v>6270</v>
       </c>
       <c r="K10" s="34" t="inlineStr">
         <is>
@@ -3731,35 +3731,35 @@
       </c>
       <c r="M10" s="35" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="N10" s="35" t="n">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="O10" s="36" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="P10" s="36" t="n">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="Q10" s="37" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="R10" s="37" t="n">
-        <v>3123</v>
+        <v>4194</v>
       </c>
       <c r="S10" s="9" t="inlineStr">
         <is>
-          <t>72.5%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="T10" s="10" t="n">
-        <v>8213</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="11">
@@ -3785,19 +3785,19 @@
       </c>
       <c r="I11" s="33" t="inlineStr">
         <is>
-          <t>68.9%</t>
+          <t>70.7%</t>
         </is>
       </c>
       <c r="J11" s="33" t="n">
-        <v>8390</v>
+        <v>8618</v>
       </c>
       <c r="K11" s="34" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="L11" s="34" t="n">
-        <v>880</v>
+        <v>846</v>
       </c>
       <c r="M11" s="35" t="inlineStr">
         <is>
@@ -3809,27 +3809,27 @@
       </c>
       <c r="O11" s="36" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="P11" s="36" t="n">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="37" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="R11" s="37" t="n">
-        <v>2415</v>
+        <v>2247</v>
       </c>
       <c r="S11" s="9" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>81.6%</t>
         </is>
       </c>
       <c r="T11" s="10" t="n">
-        <v>9767</v>
+        <v>9935</v>
       </c>
     </row>
     <row r="12">
@@ -3855,51 +3855,51 @@
       </c>
       <c r="I12" s="40" t="inlineStr">
         <is>
-          <t>18.4%</t>
+          <t>20.5%</t>
         </is>
       </c>
       <c r="J12" s="40" t="n">
-        <v>7468</v>
+        <v>8315</v>
       </c>
       <c r="K12" s="41" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="L12" s="41" t="n">
-        <v>929</v>
+        <v>1113</v>
       </c>
       <c r="M12" s="42" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="N12" s="42" t="n">
-        <v>341</v>
+        <v>697</v>
       </c>
       <c r="O12" s="43" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>17.6%</t>
         </is>
       </c>
       <c r="P12" s="43" t="n">
-        <v>7029</v>
+        <v>7146</v>
       </c>
       <c r="Q12" s="44" t="inlineStr">
         <is>
-          <t>61.2%</t>
+          <t>57.5%</t>
         </is>
       </c>
       <c r="R12" s="44" t="n">
-        <v>24837</v>
+        <v>23333</v>
       </c>
       <c r="S12" s="45" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="T12" s="10" t="n">
-        <v>15767</v>
+        <v>17271</v>
       </c>
     </row>
   </sheetData>
@@ -4061,11 +4061,11 @@
       </c>
       <c r="I6" s="33" t="inlineStr">
         <is>
-          <t>79.9%</t>
+          <t>78.5%</t>
         </is>
       </c>
       <c r="J6" s="33" t="n">
-        <v>55512</v>
+        <v>54493</v>
       </c>
       <c r="K6" s="34" t="inlineStr">
         <is>
@@ -4077,35 +4077,35 @@
       </c>
       <c r="M6" s="35" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="N6" s="35" t="n">
-        <v>5487</v>
+        <v>4968</v>
       </c>
       <c r="O6" s="36" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>8.4%</t>
         </is>
       </c>
       <c r="P6" s="36" t="n">
-        <v>4537</v>
+        <v>5844</v>
       </c>
       <c r="Q6" s="37" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="R6" s="37" t="n">
-        <v>3921</v>
+        <v>4153</v>
       </c>
       <c r="S6" s="9" t="inlineStr">
         <is>
-          <t>94.4%</t>
+          <t>94.0%</t>
         </is>
       </c>
       <c r="T6" s="10" t="n">
-        <v>65536</v>
+        <v>65304</v>
       </c>
     </row>
     <row r="7">
@@ -4131,19 +4131,19 @@
       </c>
       <c r="I7" s="33" t="inlineStr">
         <is>
-          <t>76.5%</t>
+          <t>77.0%</t>
         </is>
       </c>
       <c r="J7" s="33" t="n">
-        <v>25288</v>
+        <v>25449</v>
       </c>
       <c r="K7" s="34" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="L7" s="34" t="n">
-        <v>712</v>
+        <v>677</v>
       </c>
       <c r="M7" s="35" t="inlineStr">
         <is>
@@ -4155,27 +4155,27 @@
       </c>
       <c r="O7" s="36" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="P7" s="36" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="37" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="R7" s="37" t="n">
-        <v>6558</v>
+        <v>6401</v>
       </c>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>80.6%</t>
         </is>
       </c>
       <c r="T7" s="10" t="n">
-        <v>26506</v>
+        <v>26663</v>
       </c>
     </row>
     <row r="8">
@@ -4201,51 +4201,51 @@
       </c>
       <c r="I8" s="33" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>74.0%</t>
         </is>
       </c>
       <c r="J8" s="33" t="n">
-        <v>20080</v>
+        <v>19819</v>
       </c>
       <c r="K8" s="34" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="L8" s="34" t="n">
-        <v>470</v>
+        <v>361</v>
       </c>
       <c r="M8" s="35" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="N8" s="35" t="n">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="O8" s="36" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="P8" s="36" t="n">
-        <v>1595</v>
+        <v>1993</v>
       </c>
       <c r="Q8" s="37" t="inlineStr">
         <is>
-          <t>16.5%</t>
+          <t>16.1%</t>
         </is>
       </c>
       <c r="R8" s="37" t="n">
-        <v>4417</v>
+        <v>4320</v>
       </c>
       <c r="S8" s="9" t="inlineStr">
         <is>
-          <t>83.5%</t>
+          <t>83.9%</t>
         </is>
       </c>
       <c r="T8" s="10" t="n">
-        <v>22373</v>
+        <v>22470</v>
       </c>
     </row>
     <row r="9">
@@ -4271,11 +4271,11 @@
       </c>
       <c r="I9" s="33" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>27.9%</t>
         </is>
       </c>
       <c r="J9" s="33" t="n">
-        <v>13404</v>
+        <v>13830</v>
       </c>
       <c r="K9" s="34" t="inlineStr">
         <is>
@@ -4283,39 +4283,39 @@
         </is>
       </c>
       <c r="L9" s="34" t="n">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="M9" s="35" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="N9" s="35" t="n">
-        <v>3599</v>
+        <v>3382</v>
       </c>
       <c r="O9" s="36" t="inlineStr">
         <is>
-          <t>12.8%</t>
+          <t>11.3%</t>
         </is>
       </c>
       <c r="P9" s="36" t="n">
-        <v>6359</v>
+        <v>5609</v>
       </c>
       <c r="Q9" s="37" t="inlineStr">
         <is>
-          <t>52.1%</t>
+          <t>53.2%</t>
         </is>
       </c>
       <c r="R9" s="37" t="n">
-        <v>25835</v>
+        <v>26398</v>
       </c>
       <c r="S9" s="9" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>46.8%</t>
         </is>
       </c>
       <c r="T9" s="10" t="n">
-        <v>23757</v>
+        <v>23195</v>
       </c>
     </row>
     <row r="10">
@@ -4341,51 +4341,51 @@
       </c>
       <c r="I10" s="33" t="inlineStr">
         <is>
-          <t>44.8%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="J10" s="33" t="n">
-        <v>30708</v>
+        <v>32514</v>
       </c>
       <c r="K10" s="34" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="L10" s="34" t="n">
-        <v>721</v>
+        <v>1061</v>
       </c>
       <c r="M10" s="35" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="N10" s="35" t="n">
-        <v>3191</v>
+        <v>2740</v>
       </c>
       <c r="O10" s="36" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="P10" s="36" t="n">
-        <v>11437</v>
+        <v>10172</v>
       </c>
       <c r="Q10" s="37" t="inlineStr">
         <is>
-          <t>32.8%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="R10" s="37" t="n">
-        <v>22518</v>
+        <v>22089</v>
       </c>
       <c r="S10" s="9" t="inlineStr">
         <is>
-          <t>67.2%</t>
+          <t>67.8%</t>
         </is>
       </c>
       <c r="T10" s="10" t="n">
-        <v>46057</v>
+        <v>46486</v>
       </c>
     </row>
     <row r="11">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="I12" s="33" t="inlineStr">
         <is>
-          <t>49.7%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="J12" s="33" t="n">
-        <v>10095</v>
+        <v>10500</v>
       </c>
       <c r="K12" s="34" t="inlineStr">
         <is>
@@ -4497,35 +4497,35 @@
       </c>
       <c r="M12" s="35" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="N12" s="35" t="n">
-        <v>1017</v>
+        <v>658</v>
       </c>
       <c r="O12" s="36" t="inlineStr">
         <is>
-          <t>23.7%</t>
+          <t>21.9%</t>
         </is>
       </c>
       <c r="P12" s="36" t="n">
-        <v>4819</v>
+        <v>4443</v>
       </c>
       <c r="Q12" s="37" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>23.2%</t>
         </is>
       </c>
       <c r="R12" s="37" t="n">
-        <v>4383</v>
+        <v>4714</v>
       </c>
       <c r="S12" s="9" t="inlineStr">
         <is>
-          <t>78.4%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="T12" s="10" t="n">
-        <v>15931</v>
+        <v>15601</v>
       </c>
     </row>
     <row r="13">
@@ -4551,51 +4551,51 @@
       </c>
       <c r="I13" s="33" t="inlineStr">
         <is>
-          <t>24.9%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="J13" s="33" t="n">
-        <v>14684</v>
+        <v>13762</v>
       </c>
       <c r="K13" s="34" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>30.1%</t>
         </is>
       </c>
       <c r="L13" s="34" t="n">
-        <v>18141</v>
+        <v>17778</v>
       </c>
       <c r="M13" s="35" t="inlineStr">
         <is>
-          <t>9.0%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="N13" s="35" t="n">
-        <v>5304</v>
+        <v>4172</v>
       </c>
       <c r="O13" s="36" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="P13" s="36" t="n">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="37" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="R13" s="37" t="n">
-        <v>20352</v>
+        <v>22830</v>
       </c>
       <c r="S13" s="9" t="inlineStr">
         <is>
-          <t>65.5%</t>
+          <t>61.3%</t>
         </is>
       </c>
       <c r="T13" s="10" t="n">
-        <v>38715</v>
+        <v>36238</v>
       </c>
     </row>
     <row r="14">
@@ -4621,11 +4621,11 @@
       </c>
       <c r="I14" s="33" t="inlineStr">
         <is>
-          <t>54.3%</t>
+          <t>52.8%</t>
         </is>
       </c>
       <c r="J14" s="33" t="n">
-        <v>12303</v>
+        <v>11960</v>
       </c>
       <c r="K14" s="34" t="inlineStr">
         <is>
@@ -4637,35 +4637,35 @@
       </c>
       <c r="M14" s="35" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="N14" s="35" t="n">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="O14" s="36" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="P14" s="36" t="n">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="37" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>44.5%</t>
         </is>
       </c>
       <c r="R14" s="37" t="n">
-        <v>9855</v>
+        <v>10087</v>
       </c>
       <c r="S14" s="9" t="inlineStr">
         <is>
-          <t>56.5%</t>
+          <t>55.5%</t>
         </is>
       </c>
       <c r="T14" s="10" t="n">
-        <v>12819</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="15">
@@ -4691,51 +4691,51 @@
       </c>
       <c r="I15" s="33" t="inlineStr">
         <is>
-          <t>45.3%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="J15" s="33" t="n">
-        <v>12183</v>
+        <v>11695</v>
       </c>
       <c r="K15" s="34" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="L15" s="34" t="n">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="M15" s="35" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="N15" s="35" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="O15" s="36" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="P15" s="36" t="n">
-        <v>552</v>
+        <v>694</v>
       </c>
       <c r="Q15" s="37" t="inlineStr">
         <is>
-          <t>50.7%</t>
+          <t>51.8%</t>
         </is>
       </c>
       <c r="R15" s="37" t="n">
-        <v>13640</v>
+        <v>13942</v>
       </c>
       <c r="S15" s="9" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>48.2%</t>
         </is>
       </c>
       <c r="T15" s="10" t="n">
-        <v>13254</v>
+        <v>12952</v>
       </c>
     </row>
     <row r="16">
@@ -4761,19 +4761,19 @@
       </c>
       <c r="I16" s="33" t="inlineStr">
         <is>
-          <t>88.9%</t>
+          <t>89.9%</t>
         </is>
       </c>
       <c r="J16" s="33" t="n">
-        <v>20927</v>
+        <v>21169</v>
       </c>
       <c r="K16" s="34" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="L16" s="34" t="n">
-        <v>1342</v>
+        <v>1377</v>
       </c>
       <c r="M16" s="35" t="inlineStr">
         <is>
@@ -4793,19 +4793,19 @@
       </c>
       <c r="Q16" s="37" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="R16" s="37" t="n">
-        <v>1268</v>
+        <v>990</v>
       </c>
       <c r="S16" s="9" t="inlineStr">
         <is>
-          <t>94.6%</t>
+          <t>95.8%</t>
         </is>
       </c>
       <c r="T16" s="10" t="n">
-        <v>22269</v>
+        <v>22547</v>
       </c>
     </row>
     <row r="17">
@@ -4831,11 +4831,11 @@
       </c>
       <c r="I17" s="33" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="J17" s="33" t="n">
-        <v>34825</v>
+        <v>32481</v>
       </c>
       <c r="K17" s="34" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
       </c>
       <c r="Q17" s="37" t="inlineStr">
         <is>
-          <t>74.0%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="R17" s="37" t="n">
-        <v>99350</v>
+        <v>101694</v>
       </c>
       <c r="S17" s="9" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="T17" s="10" t="n">
-        <v>34825</v>
+        <v>32481</v>
       </c>
     </row>
     <row r="18">
@@ -4901,11 +4901,11 @@
       </c>
       <c r="I18" s="33" t="inlineStr">
         <is>
-          <t>32.7%</t>
+          <t>34.1%</t>
         </is>
       </c>
       <c r="J18" s="33" t="n">
-        <v>7964</v>
+        <v>8303</v>
       </c>
       <c r="K18" s="34" t="inlineStr">
         <is>
@@ -4917,35 +4917,35 @@
       </c>
       <c r="M18" s="35" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="N18" s="35" t="n">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="O18" s="36" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="P18" s="36" t="n">
-        <v>2291</v>
+        <v>1668</v>
       </c>
       <c r="Q18" s="37" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>53.5%</t>
         </is>
       </c>
       <c r="R18" s="37" t="n">
-        <v>12811</v>
+        <v>13046</v>
       </c>
       <c r="S18" s="9" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="T18" s="10" t="n">
-        <v>11553</v>
+        <v>11318</v>
       </c>
     </row>
     <row r="19">
@@ -4971,11 +4971,11 @@
       </c>
       <c r="I19" s="33" t="inlineStr">
         <is>
-          <t>93.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="J19" s="33" t="n">
-        <v>21764</v>
+        <v>21885</v>
       </c>
       <c r="K19" s="34" t="inlineStr">
         <is>
@@ -5003,19 +5003,19 @@
       </c>
       <c r="Q19" s="37" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="R19" s="37" t="n">
-        <v>1619</v>
+        <v>1498</v>
       </c>
       <c r="S19" s="9" t="inlineStr">
         <is>
-          <t>93.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="T19" s="10" t="n">
-        <v>21764</v>
+        <v>21885</v>
       </c>
     </row>
     <row r="20">
@@ -5045,15 +5045,15 @@
         </is>
       </c>
       <c r="J20" s="33" t="n">
-        <v>6170</v>
+        <v>6171</v>
       </c>
       <c r="K20" s="34" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="L20" s="34" t="n">
-        <v>265</v>
+        <v>479</v>
       </c>
       <c r="M20" s="35" t="inlineStr">
         <is>
@@ -5065,11 +5065,11 @@
       </c>
       <c r="O20" s="36" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>77.5%</t>
         </is>
       </c>
       <c r="P20" s="36" t="n">
-        <v>23104</v>
+        <v>22889</v>
       </c>
       <c r="Q20" s="37" t="inlineStr">
         <is>
@@ -5111,11 +5111,11 @@
       </c>
       <c r="I21" s="33" t="inlineStr">
         <is>
-          <t>35.2%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="J21" s="33" t="n">
-        <v>11463</v>
+        <v>11407</v>
       </c>
       <c r="K21" s="34" t="inlineStr">
         <is>
@@ -5123,39 +5123,39 @@
         </is>
       </c>
       <c r="L21" s="34" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M21" s="35" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="N21" s="35" t="n">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O21" s="36" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="P21" s="36" t="n">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="Q21" s="37" t="inlineStr">
         <is>
-          <t>61.6%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="R21" s="37" t="n">
-        <v>20097</v>
+        <v>20070</v>
       </c>
       <c r="S21" s="9" t="inlineStr">
         <is>
-          <t>38.4%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="T21" s="10" t="n">
-        <v>12512</v>
+        <v>12539</v>
       </c>
     </row>
     <row r="22">
@@ -5181,11 +5181,11 @@
       </c>
       <c r="I22" s="40" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="J22" s="40" t="n">
-        <v>6300</v>
+        <v>6960</v>
       </c>
       <c r="K22" s="41" t="inlineStr">
         <is>
@@ -5197,35 +5197,35 @@
       </c>
       <c r="M22" s="42" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="N22" s="42" t="n">
-        <v>4927</v>
+        <v>3397</v>
       </c>
       <c r="O22" s="43" t="inlineStr">
         <is>
-          <t>29.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="P22" s="43" t="n">
-        <v>23967</v>
+        <v>29671</v>
       </c>
       <c r="Q22" s="44" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>50.7%</t>
         </is>
       </c>
       <c r="R22" s="44" t="n">
-        <v>46014</v>
+        <v>41178</v>
       </c>
       <c r="S22" s="45" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="T22" s="10" t="n">
-        <v>35193</v>
+        <v>40029</v>
       </c>
     </row>
   </sheetData>
